--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1816007.366226592</v>
+        <v>-1816724.602842071</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730079</v>
+        <v>4950248.695730073</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.4812839200065</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>220.1004714210319</v>
+        <v>74.84694033464433</v>
       </c>
       <c r="E11" t="n">
         <v>241.8426089909375</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789147</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>262.340905115763</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H11" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>70.46388924261859</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>8.829994649431541</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>67.77492672497881</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>36.49439094626084</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U12" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V12" t="n">
-        <v>82.45070709543891</v>
+        <v>77.11641262213263</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>89.90745637500632</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>229.1191673765039</v>
+        <v>229.119167376504</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.8426089909375</v>
       </c>
       <c r="F14" t="n">
-        <v>221.0326345872418</v>
+        <v>261.0144250789147</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157629</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>174.2835417775414</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261856</v>
+        <v>40.79425059169711</v>
       </c>
       <c r="U14" t="n">
         <v>103.2926861902832</v>
@@ -1667,7 +1667,7 @@
         <v>184.6142276590013</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369582</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>8.829994649431541</v>
       </c>
       <c r="C15" t="n">
-        <v>11.09138232743808</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>216.28848525876</v>
       </c>
       <c r="V15" t="n">
-        <v>77.1164126221326</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>236.1295253483222</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>148.8550320586007</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>41.60085938290021</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.72456129351926</v>
+        <v>32.72456129351929</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891974</v>
+        <v>18.92455613891977</v>
       </c>
       <c r="D16" t="n">
-        <v>2.54592053649813</v>
+        <v>2.545920536498159</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277579</v>
+        <v>1.493670392277608</v>
       </c>
       <c r="F16" t="n">
-        <v>1.960594720463888</v>
+        <v>1.960594720463916</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697627</v>
+        <v>17.96311329697631</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783401</v>
+        <v>6.363700576783444</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224585</v>
+        <v>57.83398394224588</v>
       </c>
       <c r="T16" t="n">
-        <v>80.68894132961884</v>
+        <v>80.68894132961888</v>
       </c>
       <c r="U16" t="n">
-        <v>135.3082370038742</v>
+        <v>135.3082370038743</v>
       </c>
       <c r="V16" t="n">
-        <v>109.1326976931448</v>
+        <v>109.1326976931449</v>
       </c>
       <c r="W16" t="n">
         <v>134.2995837637581</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94468575956122</v>
+        <v>79.94468575956125</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.81955351562891</v>
+        <v>70.81955351562894</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.9083003675345</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C17" t="n">
-        <v>133.9196173252162</v>
+        <v>133.9196173252161</v>
       </c>
       <c r="D17" t="n">
-        <v>124.9009213697442</v>
+        <v>124.9009213697441</v>
       </c>
       <c r="E17" t="n">
-        <v>146.6430589396497</v>
+        <v>146.6430589396496</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8148750276269</v>
+        <v>165.8148750276268</v>
       </c>
       <c r="G17" t="n">
-        <v>167.1413550644752</v>
+        <v>167.1413550644751</v>
       </c>
       <c r="H17" t="n">
-        <v>79.08399172625269</v>
+        <v>79.08399172625363</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138995465</v>
+        <v>8.093136138995419</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771357</v>
+        <v>89.41467760771351</v>
       </c>
       <c r="W17" t="n">
-        <v>114.7147770856705</v>
+        <v>114.7147770856704</v>
       </c>
       <c r="X17" t="n">
-        <v>134.0150353184171</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4116331146159</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I18" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>185.4896446502776</v>
       </c>
       <c r="U18" t="n">
-        <v>215.9452256331092</v>
+        <v>138.3625137541113</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>106.7138564108285</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.1086869525865</v>
+        <v>51.60461442568987</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185712</v>
+        <v>13.93314764185706</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247038</v>
+        <v>39.10003371247032</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.9083003675345</v>
+        <v>145.9083003675343</v>
       </c>
       <c r="C20" t="n">
-        <v>133.9196173252162</v>
+        <v>133.9196173252161</v>
       </c>
       <c r="D20" t="n">
-        <v>124.9009213697442</v>
+        <v>124.9009213697441</v>
       </c>
       <c r="E20" t="n">
-        <v>146.6430589396497</v>
+        <v>146.6430589396496</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8148750276269</v>
+        <v>165.8148750276268</v>
       </c>
       <c r="G20" t="n">
-        <v>167.1413550644752</v>
+        <v>167.1413550644751</v>
       </c>
       <c r="H20" t="n">
-        <v>79.08399172625369</v>
+        <v>79.08399172625357</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995465</v>
+        <v>8.093136138995362</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771357</v>
+        <v>89.41467760771346</v>
       </c>
       <c r="W20" t="n">
-        <v>114.7147770856705</v>
+        <v>114.7147770856704</v>
       </c>
       <c r="X20" t="n">
-        <v>134.0150353184171</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.4116331146159</v>
+        <v>145.4116331146157</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>32.90099131218398</v>
       </c>
       <c r="F21" t="n">
-        <v>116.8629756661538</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I21" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28848525876</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>63.13929721933627</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>70.42378240413899</v>
       </c>
       <c r="G22" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.1086869525865</v>
+        <v>40.10868695258639</v>
       </c>
       <c r="V22" t="n">
-        <v>13.93314764185712</v>
+        <v>13.933147641857</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247038</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.9083003675345</v>
+        <v>145.9083003675343</v>
       </c>
       <c r="C23" t="n">
-        <v>133.9196173252162</v>
+        <v>133.9196173252161</v>
       </c>
       <c r="D23" t="n">
-        <v>124.9009213697442</v>
+        <v>124.9009213697441</v>
       </c>
       <c r="E23" t="n">
-        <v>146.6430589396497</v>
+        <v>146.6430589396496</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8148750276269</v>
+        <v>165.8148750276268</v>
       </c>
       <c r="G23" t="n">
-        <v>167.1413550644752</v>
+        <v>167.1413550644751</v>
       </c>
       <c r="H23" t="n">
-        <v>79.08399172625369</v>
+        <v>79.08399172625357</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995465</v>
+        <v>8.093136138995352</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771357</v>
+        <v>89.41467760771346</v>
       </c>
       <c r="W23" t="n">
-        <v>114.7147770856705</v>
+        <v>114.7147770856704</v>
       </c>
       <c r="X23" t="n">
-        <v>134.0150353184171</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.4116331146159</v>
+        <v>145.4116331146157</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>18.48687449754157</v>
       </c>
       <c r="U24" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
-        <v>209.0829875844589</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.1086869525865</v>
+        <v>171.9417243779957</v>
       </c>
       <c r="V25" t="n">
-        <v>13.93314764185712</v>
+        <v>13.933147641857</v>
       </c>
       <c r="W25" t="n">
-        <v>39.10003371247038</v>
+        <v>39.10003371247026</v>
       </c>
       <c r="X25" t="n">
-        <v>72.04724219138271</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E26" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F26" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G26" t="n">
         <v>310.2168585975749</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629988</v>
+        <v>46.57653758629989</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090992</v>
+        <v>70.41020702090994</v>
       </c>
       <c r="T26" t="n">
         <v>118.3398427244305</v>
@@ -2612,13 +2612,13 @@
         <v>151.1686396720951</v>
       </c>
       <c r="V26" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W26" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X26" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y26" t="n">
         <v>288.4871366477155</v>
@@ -2652,7 +2652,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I27" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S27" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T27" t="n">
         <v>185.4896446502776</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.60051477533119</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C28" t="n">
-        <v>66.80050962073167</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D28" t="n">
-        <v>50.42187401831006</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E28" t="n">
-        <v>49.36962387408951</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F28" t="n">
-        <v>49.83654820227582</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G28" t="n">
-        <v>65.83906677878821</v>
+        <v>65.83906677878824</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859533</v>
+        <v>54.23965405859536</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554673</v>
+        <v>33.45639417554676</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66887443723269</v>
+        <v>34.66887443723271</v>
       </c>
       <c r="S28" t="n">
         <v>105.7099374240578</v>
@@ -2773,13 +2773,13 @@
         <v>157.0086511749568</v>
       </c>
       <c r="W28" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X28" t="n">
         <v>127.8206392413732</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758629986</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090995</v>
+        <v>70.41020702090992</v>
       </c>
       <c r="T29" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U29" t="n">
-        <v>151.1686396720952</v>
+        <v>151.1686396720951</v>
       </c>
       <c r="V29" t="n">
         <v>232.4901811408133</v>
@@ -2889,7 +2889,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I30" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575466</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.02901935393508</v>
+        <v>39.02901935393506</v>
       </c>
       <c r="S30" t="n">
         <v>145.2410726443113</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C31" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878824</v>
+        <v>65.83906677878822</v>
       </c>
       <c r="H31" t="n">
         <v>54.23965405859536</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554676</v>
+        <v>33.45639417554675</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723272</v>
+        <v>34.6688744372327</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3029,25 +3029,25 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C32" t="n">
-        <v>276.9951208583158</v>
+        <v>276.9951208583159</v>
       </c>
       <c r="D32" t="n">
-        <v>267.9764249028438</v>
+        <v>267.9764249028439</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F32" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G32" t="n">
-        <v>310.2168585975748</v>
+        <v>310.2168585975749</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629986</v>
+        <v>46.57653758629991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090991</v>
+        <v>70.41020702090995</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1686396720951</v>
+        <v>151.1686396720952</v>
       </c>
       <c r="V32" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X32" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y32" t="n">
         <v>288.4871366477155</v>
@@ -3126,7 +3126,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I33" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S33" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T33" t="n">
         <v>185.4896446502776</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533118</v>
+        <v>80.60051477533122</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073166</v>
+        <v>66.8005096207317</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831005</v>
+        <v>50.42187401831009</v>
       </c>
       <c r="E34" t="n">
-        <v>49.3696238740895</v>
+        <v>49.36962387408954</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227581</v>
+        <v>49.83654820227585</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878821</v>
+        <v>65.83906677878824</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859533</v>
+        <v>54.23965405859536</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554673</v>
+        <v>33.45639417554676</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723268</v>
+        <v>34.66887443723272</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
       </c>
       <c r="T34" t="n">
-        <v>128.5648948114307</v>
+        <v>128.5648948114308</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1841904856861</v>
+        <v>183.1841904856862</v>
       </c>
       <c r="V34" t="n">
         <v>157.0086511749568</v>
       </c>
       <c r="W34" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X34" t="n">
-        <v>127.8206392413731</v>
+        <v>127.8206392413732</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C35" t="n">
         <v>206.5849138374059</v>
@@ -3278,7 +3278,7 @@
         <v>238.4801715398166</v>
       </c>
       <c r="G35" t="n">
-        <v>239.8066515766648</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H35" t="n">
         <v>151.7492882384434</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75843265118516</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V35" t="n">
         <v>162.0799741199033</v>
@@ -3332,7 +3332,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>61.12159737954507</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
@@ -3363,7 +3363,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I36" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S36" t="n">
-        <v>145.2410726443113</v>
+        <v>68.91241938416823</v>
       </c>
       <c r="T36" t="n">
         <v>185.4896446502776</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>42.63581932673312</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.29973040314779</v>
+        <v>35.29973040314782</v>
       </c>
       <c r="T37" t="n">
-        <v>58.1546877905208</v>
+        <v>58.15468779052083</v>
       </c>
       <c r="U37" t="n">
         <v>112.7739834647762</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W37" t="n">
-        <v>111.7653302246601</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046321</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.70787214316078</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C38" t="n">
         <v>206.5849138374059</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118515</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V38" t="n">
         <v>162.0799741199033</v>
@@ -3569,7 +3569,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>95.80294554235505</v>
+        <v>75.99476350796509</v>
       </c>
       <c r="I39" t="n">
-        <v>56.52047122575467</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T39" t="n">
-        <v>109.1609913901333</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U39" t="n">
         <v>216.28848525876</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29973040314779</v>
+        <v>35.29973040314782</v>
       </c>
       <c r="T40" t="n">
-        <v>58.1546877905208</v>
+        <v>58.15468779052083</v>
       </c>
       <c r="U40" t="n">
         <v>112.7739834647762</v>
       </c>
       <c r="V40" t="n">
-        <v>86.5984441540468</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W40" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>57.41043222046321</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.2813767081191</v>
+        <v>54.31756954333876</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.5735968797242</v>
+        <v>218.5735968797248</v>
       </c>
       <c r="C41" t="n">
-        <v>206.5849138374059</v>
+        <v>206.5849138374065</v>
       </c>
       <c r="D41" t="n">
-        <v>197.5662178819339</v>
+        <v>197.5662178819345</v>
       </c>
       <c r="E41" t="n">
-        <v>219.3083554518394</v>
+        <v>219.30835545184</v>
       </c>
       <c r="F41" t="n">
-        <v>238.4801715398166</v>
+        <v>238.4801715398172</v>
       </c>
       <c r="G41" t="n">
-        <v>239.8066515766649</v>
+        <v>239.8066515766655</v>
       </c>
       <c r="H41" t="n">
-        <v>151.7492882384434</v>
+        <v>151.749288238444</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352115</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118517</v>
+        <v>80.75843265118577</v>
       </c>
       <c r="V41" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199039</v>
       </c>
       <c r="W41" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978608</v>
       </c>
       <c r="X41" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306074</v>
       </c>
       <c r="Y41" t="n">
-        <v>218.0769296268056</v>
+        <v>218.0769296268062</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I42" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S42" t="n">
-        <v>68.91241938416688</v>
+        <v>68.91241938417588</v>
       </c>
       <c r="T42" t="n">
         <v>185.4896446502776</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442184</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314782</v>
+        <v>53.8928555320877</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052083</v>
+        <v>58.15468779052143</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647768</v>
       </c>
       <c r="V43" t="n">
-        <v>124.9549325441657</v>
+        <v>86.59844415404743</v>
       </c>
       <c r="W43" t="n">
-        <v>111.7653302246601</v>
+        <v>111.7653302246607</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046321</v>
+        <v>57.4104322204638</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653149</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.5735968797242</v>
+        <v>218.5735968797248</v>
       </c>
       <c r="C44" t="n">
-        <v>206.5849138374059</v>
+        <v>206.5849138374065</v>
       </c>
       <c r="D44" t="n">
-        <v>197.5662178819339</v>
+        <v>197.5662178819345</v>
       </c>
       <c r="E44" t="n">
-        <v>219.3083554518394</v>
+        <v>219.30835545184</v>
       </c>
       <c r="F44" t="n">
-        <v>238.4801715398166</v>
+        <v>238.4801715398172</v>
       </c>
       <c r="G44" t="n">
-        <v>239.8066515766649</v>
+        <v>239.8066515766655</v>
       </c>
       <c r="H44" t="n">
-        <v>151.7492882384434</v>
+        <v>151.749288238444</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352114</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118517</v>
+        <v>80.75843265118579</v>
       </c>
       <c r="V44" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199039</v>
       </c>
       <c r="W44" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978608</v>
       </c>
       <c r="X44" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306074</v>
       </c>
       <c r="Y44" t="n">
-        <v>218.0769296268056</v>
+        <v>218.0769296268062</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H45" t="n">
-        <v>95.80294554235505</v>
+        <v>19.47429228221925</v>
       </c>
       <c r="I45" t="n">
-        <v>56.52047122575467</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S45" t="n">
-        <v>68.91241938416688</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T45" t="n">
         <v>185.4896446502776</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442184</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>42.63581932673326</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>35.29973040314782</v>
+        <v>56.69225737480618</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052083</v>
+        <v>58.15468779052143</v>
       </c>
       <c r="U46" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647768</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>86.59844415404743</v>
       </c>
       <c r="W46" t="n">
-        <v>111.7653302246601</v>
+        <v>111.7653302246607</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046321</v>
+        <v>57.4104322204638</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653149</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1201.289982393551</v>
+        <v>614.8743279058297</v>
       </c>
       <c r="C11" t="n">
-        <v>1201.289982393551</v>
+        <v>614.8743279058297</v>
       </c>
       <c r="D11" t="n">
-        <v>978.9662738874578</v>
+        <v>539.2713578708355</v>
       </c>
       <c r="E11" t="n">
-        <v>734.6808102602481</v>
+        <v>294.9858942436259</v>
       </c>
       <c r="F11" t="n">
-        <v>471.0298758371021</v>
+        <v>294.9858942436259</v>
       </c>
       <c r="G11" t="n">
-        <v>206.0390625888568</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H11" t="n">
         <v>29.99508099538057</v>
@@ -5042,28 +5042,28 @@
         <v>29.99508099538057</v>
       </c>
       <c r="K11" t="n">
-        <v>71.64548705242839</v>
+        <v>346.5492874464849</v>
       </c>
       <c r="L11" t="n">
-        <v>442.834614370263</v>
+        <v>346.5492874464849</v>
       </c>
       <c r="M11" t="n">
-        <v>442.834614370263</v>
+        <v>346.5492874464849</v>
       </c>
       <c r="N11" t="n">
-        <v>814.0237416880975</v>
+        <v>654.7204880487633</v>
       </c>
       <c r="O11" t="n">
-        <v>1185.212869005932</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="P11" t="n">
-        <v>1499.754049769029</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S11" t="n">
         <v>1476.992177507313</v>
@@ -5072,19 +5072,19 @@
         <v>1405.816531807699</v>
       </c>
       <c r="U11" t="n">
-        <v>1405.816531807699</v>
+        <v>1301.480485150847</v>
       </c>
       <c r="V11" t="n">
-        <v>1405.816531807699</v>
+        <v>1301.480485150847</v>
       </c>
       <c r="W11" t="n">
-        <v>1405.816531807699</v>
+        <v>1089.445811275131</v>
       </c>
       <c r="X11" t="n">
-        <v>1405.816531807699</v>
+        <v>857.9159270633081</v>
       </c>
       <c r="Y11" t="n">
-        <v>1405.816531807699</v>
+        <v>614.8743279058297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330.5373907642138</v>
+        <v>525.849075139222</v>
       </c>
       <c r="C12" t="n">
-        <v>168.8337180051685</v>
+        <v>457.389553194799</v>
       </c>
       <c r="D12" t="n">
-        <v>29.99508099538057</v>
+        <v>318.550916185011</v>
       </c>
       <c r="E12" t="n">
-        <v>29.99508099538057</v>
+        <v>318.550916185011</v>
       </c>
       <c r="F12" t="n">
-        <v>29.99508099538057</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="G12" t="n">
-        <v>29.99508099538057</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H12" t="n">
-        <v>29.99508099538057</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I12" t="n">
         <v>29.99508099538057</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6157572122718</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>120.6157572122718</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L12" t="n">
-        <v>120.6157572122718</v>
+        <v>491.8048845301063</v>
       </c>
       <c r="M12" t="n">
-        <v>195.1042049741844</v>
+        <v>862.9940118479408</v>
       </c>
       <c r="N12" t="n">
-        <v>566.2933322920189</v>
+        <v>862.9940118479408</v>
       </c>
       <c r="O12" t="n">
-        <v>937.4824596098534</v>
+        <v>937.4824596098533</v>
       </c>
       <c r="P12" t="n">
         <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R12" t="n">
-        <v>1460.330797896367</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S12" t="n">
-        <v>1460.330797896367</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T12" t="n">
-        <v>1423.467776738528</v>
+        <v>1312.390772344506</v>
       </c>
       <c r="U12" t="n">
-        <v>1204.994559305437</v>
+        <v>1093.917554911415</v>
       </c>
       <c r="V12" t="n">
-        <v>1121.711016784791</v>
+        <v>1016.022188626432</v>
       </c>
       <c r="W12" t="n">
-        <v>880.3951480181013</v>
+        <v>925.2065761264259</v>
       </c>
       <c r="X12" t="n">
-        <v>682.4781598958958</v>
+        <v>727.2895880042205</v>
       </c>
       <c r="Y12" t="n">
-        <v>489.9568335454747</v>
+        <v>534.7682616537993</v>
       </c>
     </row>
     <row r="13">
@@ -5194,13 +5194,13 @@
         <v>29.99508099538057</v>
       </c>
       <c r="I13" t="n">
-        <v>29.99508099538057</v>
+        <v>29.9950809953815</v>
       </c>
       <c r="J13" t="n">
-        <v>29.99508099538146</v>
+        <v>29.9950809953815</v>
       </c>
       <c r="K13" t="n">
-        <v>94.90588907899715</v>
+        <v>94.90588907899718</v>
       </c>
       <c r="L13" t="n">
         <v>235.5746640210057</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>925.7286656994715</v>
+        <v>1167.732671545815</v>
       </c>
       <c r="C14" t="n">
-        <v>694.2951632989625</v>
+        <v>936.2991691453055</v>
       </c>
       <c r="D14" t="n">
-        <v>694.2951632989625</v>
+        <v>713.9754606392125</v>
       </c>
       <c r="E14" t="n">
-        <v>694.2951632989625</v>
+        <v>469.6899970120029</v>
       </c>
       <c r="F14" t="n">
-        <v>471.0298758371022</v>
+        <v>206.0390625888568</v>
       </c>
       <c r="G14" t="n">
         <v>206.0390625888568</v>
@@ -5279,49 +5279,49 @@
         <v>152.9789828377825</v>
       </c>
       <c r="K14" t="n">
-        <v>469.5331892888868</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="L14" t="n">
-        <v>469.5331892888868</v>
+        <v>524.168110155617</v>
       </c>
       <c r="M14" t="n">
-        <v>840.7223166067214</v>
+        <v>895.3572374734515</v>
       </c>
       <c r="N14" t="n">
-        <v>840.7223166067214</v>
+        <v>1266.546364791286</v>
       </c>
       <c r="O14" t="n">
-        <v>1185.212869005932</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="P14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T14" t="n">
-        <v>1428.578404069414</v>
+        <v>1458.547736040041</v>
       </c>
       <c r="U14" t="n">
-        <v>1324.242357412562</v>
+        <v>1354.21168938319</v>
       </c>
       <c r="V14" t="n">
-        <v>1137.763339575187</v>
+        <v>1167.732671545815</v>
       </c>
       <c r="W14" t="n">
-        <v>925.7286656994715</v>
+        <v>1167.732671545815</v>
       </c>
       <c r="X14" t="n">
-        <v>925.7286656994715</v>
+        <v>1167.732671545815</v>
       </c>
       <c r="Y14" t="n">
-        <v>925.7286656994715</v>
+        <v>1167.732671545815</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>188.226507430871</v>
+        <v>383.4839368810714</v>
       </c>
       <c r="C15" t="n">
-        <v>177.0230909385093</v>
+        <v>221.7802641220261</v>
       </c>
       <c r="D15" t="n">
-        <v>177.0230909385093</v>
+        <v>221.7802641220261</v>
       </c>
       <c r="E15" t="n">
-        <v>29.99508099538057</v>
+        <v>221.7802641220261</v>
       </c>
       <c r="F15" t="n">
-        <v>29.99508099538057</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="G15" t="n">
-        <v>29.99508099538057</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="H15" t="n">
-        <v>29.99508099538057</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I15" t="n">
         <v>29.99508099538057</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6157572122718</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K15" t="n">
-        <v>393.9039894376893</v>
+        <v>402.007545711735</v>
       </c>
       <c r="L15" t="n">
-        <v>765.0931167555239</v>
+        <v>773.1966730295695</v>
       </c>
       <c r="M15" t="n">
-        <v>765.0931167555239</v>
+        <v>929.7651379876887</v>
       </c>
       <c r="N15" t="n">
-        <v>765.0931167555239</v>
+        <v>929.7651379876887</v>
       </c>
       <c r="O15" t="n">
-        <v>1136.282244073358</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P15" t="n">
-        <v>1499.754049769029</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R15" t="n">
         <v>1460.330797896367</v>
@@ -5391,16 +5391,16 @@
         <v>1054.494303038753</v>
       </c>
       <c r="V15" t="n">
-        <v>976.5989367537709</v>
+        <v>826.098680487087</v>
       </c>
       <c r="W15" t="n">
-        <v>738.0842646847585</v>
+        <v>584.782811720397</v>
       </c>
       <c r="X15" t="n">
-        <v>540.1672765625531</v>
+        <v>434.4241934793862</v>
       </c>
       <c r="Y15" t="n">
-        <v>347.6459502121319</v>
+        <v>392.4031233956487</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853066</v>
+        <v>79.74412711853108</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689455</v>
+        <v>60.62841384689494</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134087</v>
+        <v>58.05677694134124</v>
       </c>
       <c r="E16" t="n">
-        <v>56.5480189693433</v>
+        <v>56.54801896934364</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180402</v>
+        <v>54.56762026180434</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596987</v>
+        <v>36.42306137596991</v>
       </c>
       <c r="H16" t="n">
         <v>29.99508099538057</v>
@@ -5437,49 +5437,49 @@
         <v>29.99508099538057</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899627</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L16" t="n">
-        <v>235.5746640210049</v>
+        <v>235.5746640210048</v>
       </c>
       <c r="M16" t="n">
-        <v>395.8076110331841</v>
+        <v>395.8076110331839</v>
       </c>
       <c r="N16" t="n">
-        <v>555.4650341729191</v>
+        <v>555.4650341729189</v>
       </c>
       <c r="O16" t="n">
-        <v>692.0159524237215</v>
+        <v>692.0159524237213</v>
       </c>
       <c r="P16" t="n">
-        <v>787.5746769178755</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178755</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178755</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196474</v>
+        <v>729.1565113196473</v>
       </c>
       <c r="T16" t="n">
         <v>647.6525301786181</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060179</v>
+        <v>510.9775433060184</v>
       </c>
       <c r="V16" t="n">
-        <v>400.7424951311241</v>
+        <v>400.7424951311247</v>
       </c>
       <c r="W16" t="n">
-        <v>265.0863499152068</v>
+        <v>265.0863499152073</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772662</v>
+        <v>184.3341420772667</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362269</v>
+        <v>112.7992395362273</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862535</v>
+        <v>855.7565147862545</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537116</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155862</v>
+        <v>594.3216272155876</v>
       </c>
       <c r="E17" t="n">
-        <v>446.197325256344</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F17" t="n">
-        <v>278.7075525011653</v>
+        <v>278.7075525011669</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208884</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H17" t="n">
         <v>29.99508099538057</v>
@@ -5522,31 +5522,31 @@
         <v>29.99508099538057</v>
       </c>
       <c r="M17" t="n">
-        <v>283.5313607309286</v>
+        <v>401.1842083132151</v>
       </c>
       <c r="N17" t="n">
-        <v>654.7204880487632</v>
+        <v>772.3733356310496</v>
       </c>
       <c r="O17" t="n">
-        <v>1025.909615366598</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="P17" t="n">
-        <v>1340.450796129694</v>
+        <v>1458.103643711981</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U17" t="n">
-        <v>1491.579164780144</v>
+        <v>1491.579164780145</v>
       </c>
       <c r="V17" t="n">
         <v>1401.261308610737</v>
@@ -5558,7 +5558,7 @@
         <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
-        <v>1003.138636369622</v>
+        <v>1003.138636369623</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234.1144760150292</v>
+        <v>465.5789261281398</v>
       </c>
       <c r="C18" t="n">
-        <v>234.1144760150292</v>
+        <v>465.5789261281398</v>
       </c>
       <c r="D18" t="n">
-        <v>234.1144760150292</v>
+        <v>465.5789261281398</v>
       </c>
       <c r="E18" t="n">
-        <v>87.08646607190045</v>
+        <v>318.550916185011</v>
       </c>
       <c r="F18" t="n">
-        <v>87.08646607190045</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="G18" t="n">
-        <v>87.08646607190045</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H18" t="n">
         <v>87.08646607190045</v>
@@ -5592,52 +5592,52 @@
         <v>29.99508099538057</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6157572122718</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K18" t="n">
         <v>402.007545711735</v>
       </c>
       <c r="L18" t="n">
-        <v>773.1966730295696</v>
+        <v>773.1966730295695</v>
       </c>
       <c r="M18" t="n">
-        <v>937.4824596098534</v>
+        <v>937.4824596098533</v>
       </c>
       <c r="N18" t="n">
-        <v>937.4824596098534</v>
+        <v>937.4824596098533</v>
       </c>
       <c r="O18" t="n">
-        <v>937.4824596098534</v>
+        <v>937.4824596098533</v>
       </c>
       <c r="P18" t="n">
         <v>1300.954265305523</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R18" t="n">
-        <v>1499.754049769029</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S18" t="n">
-        <v>1499.754049769029</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="T18" t="n">
-        <v>1312.390772344506</v>
+        <v>1272.967520471844</v>
       </c>
       <c r="U18" t="n">
-        <v>1094.264281806012</v>
+        <v>1133.207405568701</v>
       </c>
       <c r="V18" t="n">
-        <v>865.8686592543457</v>
+        <v>904.8117830170352</v>
       </c>
       <c r="W18" t="n">
-        <v>624.5527904876558</v>
+        <v>663.4959142503452</v>
       </c>
       <c r="X18" t="n">
-        <v>426.6358023654504</v>
+        <v>465.5789261281398</v>
       </c>
       <c r="Y18" t="n">
-        <v>234.1144760150292</v>
+        <v>465.5789261281398</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.7241060336867</v>
+        <v>544.7201613224664</v>
       </c>
       <c r="C19" t="n">
-        <v>446.7241060336867</v>
+        <v>375.1041917841467</v>
       </c>
       <c r="D19" t="n">
-        <v>446.7241060336867</v>
+        <v>375.1041917841467</v>
       </c>
       <c r="E19" t="n">
-        <v>294.7150917950055</v>
+        <v>223.0951775454655</v>
       </c>
       <c r="F19" t="n">
-        <v>294.7150917950055</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="G19" t="n">
-        <v>294.7150917950055</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="H19" t="n">
-        <v>137.7868551477326</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="I19" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="J19" t="n">
         <v>29.99508099538057</v>
       </c>
       <c r="K19" t="n">
-        <v>94.90588907899627</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L19" t="n">
         <v>235.5746640210048</v>
@@ -5692,31 +5692,31 @@
         <v>787.5746769178753</v>
       </c>
       <c r="Q19" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178753</v>
       </c>
       <c r="R19" t="n">
-        <v>772.0592653978199</v>
+        <v>650.4149045346051</v>
       </c>
       <c r="S19" t="n">
-        <v>772.0592653978199</v>
+        <v>650.4149045346051</v>
       </c>
       <c r="T19" t="n">
-        <v>772.0592653978199</v>
+        <v>650.4149045346051</v>
       </c>
       <c r="U19" t="n">
-        <v>731.5454401931871</v>
+        <v>598.2890313773426</v>
       </c>
       <c r="V19" t="n">
-        <v>717.4715536862608</v>
+        <v>584.2151448704162</v>
       </c>
       <c r="W19" t="n">
-        <v>677.9765701383109</v>
+        <v>544.7201613224664</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7241060336867</v>
+        <v>544.7201613224664</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.7241060336867</v>
+        <v>544.7201613224664</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862543</v>
+        <v>855.7565147862542</v>
       </c>
       <c r="C20" t="n">
         <v>720.4841740537126</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155876</v>
+        <v>594.3216272155873</v>
       </c>
       <c r="E20" t="n">
         <v>446.1973252563453</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7075525011666</v>
+        <v>278.7075525011667</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208894</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H20" t="n">
         <v>29.99508099538057</v>
@@ -5756,43 +5756,43 @@
         <v>346.5492874464849</v>
       </c>
       <c r="L20" t="n">
-        <v>717.7384147643195</v>
+        <v>717.7384147643194</v>
       </c>
       <c r="M20" t="n">
-        <v>969.2616688118596</v>
+        <v>1088.927542082154</v>
       </c>
       <c r="N20" t="n">
-        <v>1340.450796129694</v>
+        <v>1185.212869005932</v>
       </c>
       <c r="O20" t="n">
-        <v>1340.450796129694</v>
+        <v>1185.212869005932</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.450796129694</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U20" t="n">
-        <v>1491.579164780145</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V20" t="n">
-        <v>1401.261308610737</v>
+        <v>1401.261308610736</v>
       </c>
       <c r="W20" t="n">
         <v>1285.387796402989</v>
       </c>
       <c r="X20" t="n">
-        <v>1150.019073859134</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y20" t="n">
         <v>1003.138636369622</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>463.6042006577224</v>
+        <v>480.1848011967849</v>
       </c>
       <c r="C21" t="n">
-        <v>301.9005278986771</v>
+        <v>480.1848011967849</v>
       </c>
       <c r="D21" t="n">
-        <v>301.9005278986771</v>
+        <v>480.1848011967849</v>
       </c>
       <c r="E21" t="n">
-        <v>301.9005278986771</v>
+        <v>446.9514766390233</v>
       </c>
       <c r="F21" t="n">
-        <v>183.8571181348854</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="G21" t="n">
         <v>183.8571181348854</v>
@@ -5829,52 +5829,52 @@
         <v>29.99508099538057</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6157572122718</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K21" t="n">
-        <v>402.007545711735</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L21" t="n">
-        <v>773.1966730295696</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="M21" t="n">
-        <v>773.1966730295696</v>
+        <v>195.1042049741843</v>
       </c>
       <c r="N21" t="n">
-        <v>773.1966730295696</v>
+        <v>566.2933322920188</v>
       </c>
       <c r="O21" t="n">
-        <v>937.4824596098534</v>
+        <v>937.4824596098533</v>
       </c>
       <c r="P21" t="n">
         <v>1300.954265305523</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R21" t="n">
-        <v>1460.330797896367</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S21" t="n">
-        <v>1460.330797896367</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T21" t="n">
-        <v>1460.330797896367</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U21" t="n">
-        <v>1241.857580463276</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="V21" t="n">
-        <v>1013.46195791161</v>
+        <v>1271.358427217362</v>
       </c>
       <c r="W21" t="n">
-        <v>1013.46195791161</v>
+        <v>1030.042558450672</v>
       </c>
       <c r="X21" t="n">
-        <v>815.5449697894045</v>
+        <v>832.125570328467</v>
       </c>
       <c r="Y21" t="n">
-        <v>623.0236434389833</v>
+        <v>639.6042439780458</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>262.4169640462183</v>
+        <v>446.8305637237156</v>
       </c>
       <c r="C22" t="n">
-        <v>262.4169640462183</v>
+        <v>446.8305637237156</v>
       </c>
       <c r="D22" t="n">
-        <v>198.6398961478988</v>
+        <v>293.7586705514783</v>
       </c>
       <c r="E22" t="n">
-        <v>198.6398961478988</v>
+        <v>141.7496563127971</v>
       </c>
       <c r="F22" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="G22" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="H22" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="I22" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="J22" t="n">
         <v>29.99508099538057</v>
       </c>
       <c r="K22" t="n">
-        <v>94.90588907899627</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L22" t="n">
         <v>235.5746640210048</v>
@@ -5929,31 +5929,31 @@
         <v>787.5746769178753</v>
       </c>
       <c r="Q22" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178753</v>
       </c>
       <c r="R22" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178753</v>
       </c>
       <c r="S22" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178753</v>
       </c>
       <c r="T22" t="n">
-        <v>540.0550279901072</v>
+        <v>787.5746769178753</v>
       </c>
       <c r="U22" t="n">
-        <v>499.5412027854744</v>
+        <v>747.0608517132426</v>
       </c>
       <c r="V22" t="n">
-        <v>485.467316278548</v>
+        <v>732.9869652063164</v>
       </c>
       <c r="W22" t="n">
-        <v>445.9723327305981</v>
+        <v>446.8305637237156</v>
       </c>
       <c r="X22" t="n">
-        <v>445.9723327305981</v>
+        <v>446.8305637237156</v>
       </c>
       <c r="Y22" t="n">
-        <v>445.9723327305981</v>
+        <v>446.8305637237156</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.7565147862553</v>
+        <v>855.7565147862546</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537137</v>
+        <v>720.4841740537131</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155883</v>
+        <v>594.3216272155878</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563461</v>
+        <v>446.1973252563457</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011674</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8779009208894</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H23" t="n">
         <v>29.99508099538057</v>
@@ -5996,40 +5996,40 @@
         <v>29.99508099538057</v>
       </c>
       <c r="M23" t="n">
-        <v>401.1842083132152</v>
+        <v>401.1842083132151</v>
       </c>
       <c r="N23" t="n">
-        <v>654.7204880487632</v>
+        <v>772.3733356310496</v>
       </c>
       <c r="O23" t="n">
-        <v>1025.909615366598</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="P23" t="n">
         <v>1340.450796129694</v>
       </c>
       <c r="Q23" t="n">
+        <v>1499.754049769028</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1499.754049769028</v>
+      </c>
+      <c r="S23" t="n">
         <v>1499.754049769029</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>1499.754049769029</v>
       </c>
-      <c r="S23" t="n">
-        <v>1499.75404976903</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1499.75404976903</v>
-      </c>
       <c r="U23" t="n">
-        <v>1491.579164780146</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V23" t="n">
-        <v>1401.261308610738</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W23" t="n">
-        <v>1285.38779640299</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X23" t="n">
-        <v>1150.019073859134</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y23" t="n">
         <v>1003.138636369623</v>
@@ -6066,49 +6066,49 @@
         <v>29.99508099538057</v>
       </c>
       <c r="J24" t="n">
-        <v>120.6157572122718</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K24" t="n">
-        <v>120.6157572122718</v>
+        <v>402.007545711735</v>
       </c>
       <c r="L24" t="n">
-        <v>491.8048845301063</v>
+        <v>402.007545711735</v>
       </c>
       <c r="M24" t="n">
-        <v>491.8048845301063</v>
+        <v>402.007545711735</v>
       </c>
       <c r="N24" t="n">
-        <v>566.2933322920189</v>
+        <v>773.1966730295695</v>
       </c>
       <c r="O24" t="n">
-        <v>937.4824596098534</v>
+        <v>1144.385800347404</v>
       </c>
       <c r="P24" t="n">
-        <v>1300.954265305523</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q24" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R24" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S24" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T24" t="n">
-        <v>1499.754049769029</v>
+        <v>1481.080439165451</v>
       </c>
       <c r="U24" t="n">
-        <v>1281.280832335938</v>
+        <v>1262.60722173236</v>
       </c>
       <c r="V24" t="n">
-        <v>1070.085895381939</v>
+        <v>1262.60722173236</v>
       </c>
       <c r="W24" t="n">
-        <v>828.770026615249</v>
+        <v>1021.29135296567</v>
       </c>
       <c r="X24" t="n">
-        <v>828.770026615249</v>
+        <v>1021.29135296567</v>
       </c>
       <c r="Y24" t="n">
         <v>828.770026615249</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.6110505337003</v>
+        <v>544.811885870221</v>
       </c>
       <c r="C25" t="n">
-        <v>29.99508099538057</v>
+        <v>544.811885870221</v>
       </c>
       <c r="D25" t="n">
-        <v>29.99508099538057</v>
+        <v>391.7399926979837</v>
       </c>
       <c r="E25" t="n">
-        <v>29.99508099538057</v>
+        <v>391.7399926979837</v>
       </c>
       <c r="F25" t="n">
-        <v>29.99508099538057</v>
+        <v>239.2593377237608</v>
       </c>
       <c r="G25" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="H25" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="I25" t="n">
-        <v>29.99508099538057</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="J25" t="n">
         <v>29.99508099538057</v>
       </c>
       <c r="K25" t="n">
-        <v>94.90588907899627</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L25" t="n">
         <v>235.5746640210048</v>
@@ -6178,19 +6178,19 @@
         <v>772.0592653978199</v>
       </c>
       <c r="U25" t="n">
-        <v>731.5454401931871</v>
+        <v>598.380755925097</v>
       </c>
       <c r="V25" t="n">
-        <v>717.4715536862608</v>
+        <v>584.3068694181708</v>
       </c>
       <c r="W25" t="n">
-        <v>677.9765701383109</v>
+        <v>544.811885870221</v>
       </c>
       <c r="X25" t="n">
-        <v>605.2015780258031</v>
+        <v>544.811885870221</v>
       </c>
       <c r="Y25" t="n">
-        <v>383.1664192180801</v>
+        <v>544.811885870221</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D26" t="n">
-        <v>1259.6953988904</v>
+        <v>1259.695398890399</v>
       </c>
       <c r="E26" t="n">
-        <v>967.050386291663</v>
+        <v>967.0503862916621</v>
       </c>
       <c r="F26" t="n">
-        <v>655.0399028969899</v>
+        <v>655.039902896989</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6895406772173</v>
+        <v>341.6895406772164</v>
       </c>
       <c r="H26" t="n">
         <v>117.2860101122128</v>
       </c>
       <c r="I26" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J26" t="n">
-        <v>193.2229042916856</v>
+        <v>293.3310115116684</v>
       </c>
       <c r="K26" t="n">
-        <v>609.8852179627727</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L26" t="n">
-        <v>1098.097843785305</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M26" t="n">
-        <v>1696.926289792196</v>
+        <v>1851.613370049065</v>
       </c>
       <c r="N26" t="n">
-        <v>2282.553723882484</v>
+        <v>2431.670330287062</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.88097443719</v>
+        <v>2837.889473621786</v>
       </c>
       <c r="P26" t="n">
-        <v>3203.53026242027</v>
+        <v>3252.538761604866</v>
       </c>
       <c r="Q26" t="n">
-        <v>3462.941623279587</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="R26" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S26" t="n">
         <v>3440.828701230941</v>
@@ -6263,13 +6263,13 @@
         <v>2933.759344122517</v>
       </c>
       <c r="W26" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X26" t="n">
         <v>2393.475688091924</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="27">
@@ -6288,10 +6288,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E27" t="n">
-        <v>487.1953980929263</v>
+        <v>487.1953980929264</v>
       </c>
       <c r="F27" t="n">
-        <v>352.5016000428007</v>
+        <v>352.5016000428008</v>
       </c>
       <c r="G27" t="n">
         <v>224.1010395887884</v>
@@ -6300,25 +6300,25 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I27" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J27" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="K27" t="n">
-        <v>160.8596786661748</v>
+        <v>117.2170367589562</v>
       </c>
       <c r="L27" t="n">
-        <v>596.4691405669798</v>
+        <v>552.8264986597611</v>
       </c>
       <c r="M27" t="n">
-        <v>1162.941351132694</v>
+        <v>1119.298709225475</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.80129852868</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O27" t="n">
-        <v>2226.473703505129</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P27" t="n">
         <v>2546.30286729358</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526547</v>
+        <v>443.9396799526549</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094914</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D28" t="n">
-        <v>325.5332318324105</v>
+        <v>325.5332318324106</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G28" t="n">
         <v>158.8208693524575</v>
@@ -6379,22 +6379,22 @@
         <v>104.033340000341</v>
       </c>
       <c r="I28" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J28" t="n">
-        <v>130.5359949807637</v>
+        <v>130.5359949807641</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843622</v>
+        <v>295.5549102843625</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463531</v>
+        <v>536.3317924463538</v>
       </c>
       <c r="M28" t="n">
-        <v>796.672846678515</v>
+        <v>796.6728466785157</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038234</v>
       </c>
       <c r="O28" t="n">
         <v>1293.097402509018</v>
@@ -6427,7 +6427,7 @@
         <v>645.2487928544449</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418781</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740055</v>
+        <v>1810.171707740056</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.378656368019</v>
+        <v>1530.37865636802</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.695398890399</v>
+        <v>1259.6953988904</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916626</v>
+        <v>967.0503862916628</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969891</v>
+        <v>655.0399028969896</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6895406772165</v>
+        <v>341.6895406772169</v>
       </c>
       <c r="H29" t="n">
         <v>117.2860101122128</v>
       </c>
       <c r="I29" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J29" t="n">
-        <v>293.3310115116683</v>
+        <v>293.3310115116684</v>
       </c>
       <c r="K29" t="n">
-        <v>709.9933251827554</v>
+        <v>709.9933251827556</v>
       </c>
       <c r="L29" t="n">
-        <v>1252.784924042173</v>
+        <v>1252.784924042174</v>
       </c>
       <c r="M29" t="n">
         <v>1851.613370049065</v>
       </c>
       <c r="N29" t="n">
-        <v>2437.240804139352</v>
+        <v>2431.670330287063</v>
       </c>
       <c r="O29" t="n">
-        <v>2937.997580841768</v>
+        <v>2937.997580841769</v>
       </c>
       <c r="P29" t="n">
-        <v>3352.646868824848</v>
+        <v>3252.538761604866</v>
       </c>
       <c r="Q29" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="R29" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S29" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U29" t="n">
         <v>3168.597910931419</v>
@@ -6500,13 +6500,13 @@
         <v>2933.759344122517</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275274</v>
+        <v>2673.365121275275</v>
       </c>
       <c r="X29" t="n">
         <v>2393.475688091924</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962918</v>
+        <v>2102.074539962919</v>
       </c>
     </row>
     <row r="30">
@@ -6525,10 +6525,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E30" t="n">
-        <v>487.1953980929263</v>
+        <v>487.1953980929264</v>
       </c>
       <c r="F30" t="n">
-        <v>352.5016000428007</v>
+        <v>352.5016000428008</v>
       </c>
       <c r="G30" t="n">
         <v>224.1010395887884</v>
@@ -6537,28 +6537,28 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J30" t="n">
-        <v>160.8596786661748</v>
+        <v>160.8596786661749</v>
       </c>
       <c r="K30" t="n">
-        <v>160.8596786661748</v>
+        <v>442.2514671656382</v>
       </c>
       <c r="L30" t="n">
-        <v>596.4691405669798</v>
+        <v>877.8609290664433</v>
       </c>
       <c r="M30" t="n">
-        <v>1162.941351132694</v>
+        <v>1444.333139632158</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.80129852868</v>
+        <v>1515.358872157956</v>
       </c>
       <c r="O30" t="n">
-        <v>2226.473703505129</v>
+        <v>1984.031277134405</v>
       </c>
       <c r="P30" t="n">
-        <v>2546.30286729358</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="Q30" t="n">
         <v>2546.30286729358</v>
@@ -6610,34 +6610,34 @@
         <v>225.3249772098201</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524582</v>
+        <v>158.8208693524583</v>
       </c>
       <c r="H31" t="n">
-        <v>104.033340000341</v>
+        <v>104.0333400003416</v>
       </c>
       <c r="I31" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J31" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807641</v>
       </c>
       <c r="K31" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843626</v>
       </c>
       <c r="L31" t="n">
-        <v>536.3317924463538</v>
+        <v>536.3317924463539</v>
       </c>
       <c r="M31" t="n">
-        <v>796.6728466785156</v>
+        <v>796.6728466785158</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038234</v>
       </c>
       <c r="O31" t="n">
         <v>1293.097402509019</v>
       </c>
       <c r="P31" t="n">
-        <v>1488.764234223155</v>
+        <v>1488.764234223156</v>
       </c>
       <c r="Q31" t="n">
         <v>1573.665686612332</v>
@@ -6655,13 +6655,13 @@
         <v>1116.970840997779</v>
       </c>
       <c r="V31" t="n">
-        <v>958.3762438513583</v>
+        <v>958.3762438513579</v>
       </c>
       <c r="W31" t="n">
-        <v>774.3605496639136</v>
+        <v>774.3605496639134</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544458</v>
+        <v>645.2487928544456</v>
       </c>
       <c r="Y31" t="n">
         <v>525.354341341879</v>
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D32" t="n">
         <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916628</v>
+        <v>967.0503862916623</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969896</v>
+        <v>655.039902896989</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6895406772171</v>
+        <v>341.6895406772164</v>
       </c>
       <c r="H32" t="n">
         <v>117.2860101122128</v>
       </c>
       <c r="I32" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="J32" t="n">
-        <v>293.3310115116684</v>
+        <v>293.3310115116683</v>
       </c>
       <c r="K32" t="n">
-        <v>709.9933251827555</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L32" t="n">
-        <v>1198.205951005287</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M32" t="n">
-        <v>1797.034397012179</v>
+        <v>1751.505262829082</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.661831102466</v>
+        <v>2282.553723882483</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.88097443719</v>
+        <v>2788.880974437189</v>
       </c>
       <c r="P32" t="n">
-        <v>3203.53026242027</v>
+        <v>3203.530262420269</v>
       </c>
       <c r="Q32" t="n">
-        <v>3462.941623279587</v>
+        <v>3462.941623279586</v>
       </c>
       <c r="R32" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464181</v>
       </c>
       <c r="S32" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230939</v>
       </c>
       <c r="T32" t="n">
         <v>3321.293506559798</v>
@@ -6737,13 +6737,13 @@
         <v>2933.759344122517</v>
       </c>
       <c r="W32" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X32" t="n">
-        <v>2393.475688091924</v>
+        <v>2393.475688091923</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6774,13 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="J33" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="K33" t="n">
-        <v>117.2170367589561</v>
+        <v>351.6307909487469</v>
       </c>
       <c r="L33" t="n">
         <v>552.8264986597611</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526547</v>
+        <v>443.939679952655</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094914</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324105</v>
+        <v>325.5332318324107</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G34" t="n">
         <v>158.8208693524575</v>
@@ -6853,55 +6853,55 @@
         <v>104.033340000341</v>
       </c>
       <c r="I34" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="J34" t="n">
-        <v>130.5359949807641</v>
+        <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.5549102843611</v>
+        <v>295.5549102843624</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463524</v>
+        <v>536.3317924463538</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785144</v>
+        <v>796.6728466785156</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.438377038232</v>
+        <v>1056.438377038233</v>
       </c>
       <c r="O34" t="n">
-        <v>1293.097402509017</v>
+        <v>1293.097402509019</v>
       </c>
       <c r="P34" t="n">
-        <v>1488.764234223154</v>
+        <v>1488.764234223155</v>
       </c>
       <c r="Q34" t="n">
-        <v>1573.665686612331</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R34" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S34" t="n">
         <v>1431.868906954462</v>
       </c>
       <c r="T34" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U34" t="n">
         <v>1116.970840997778</v>
       </c>
       <c r="V34" t="n">
-        <v>958.376243851357</v>
+        <v>958.3762438513573</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639125</v>
+        <v>774.3605496639128</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544447</v>
+        <v>645.2487928544449</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418781</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6917,55 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143299</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488358</v>
+        <v>685.3585658488356</v>
       </c>
       <c r="F35" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G35" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H35" t="n">
-        <v>48.95845336911377</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I35" t="n">
-        <v>48.95845336911377</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J35" t="n">
-        <v>138.9229077338776</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="K35" t="n">
-        <v>455.4771141849819</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="L35" t="n">
-        <v>898.1606058244172</v>
+        <v>614.625846850951</v>
       </c>
       <c r="M35" t="n">
-        <v>1396.880944611326</v>
+        <v>1113.34618563786</v>
       </c>
       <c r="N35" t="n">
-        <v>1882.40027148163</v>
+        <v>1598.865512508164</v>
       </c>
       <c r="O35" t="n">
-        <v>2288.619414816354</v>
+        <v>2005.084655842888</v>
       </c>
       <c r="P35" t="n">
-        <v>2288.619414816354</v>
+        <v>2319.625836605984</v>
       </c>
       <c r="Q35" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R35" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S35" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U35" t="n">
         <v>2317.934720622653</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>836.3855189669962</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C36" t="n">
-        <v>674.6818462079509</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D36" t="n">
-        <v>612.9428589558852</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E36" t="n">
-        <v>465.9148490127565</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F36" t="n">
-        <v>331.2210509626308</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G36" t="n">
-        <v>202.8204905086185</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H36" t="n">
-        <v>106.0498384456336</v>
+        <v>106.0498384456337</v>
       </c>
       <c r="I36" t="n">
-        <v>48.95845336911377</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J36" t="n">
-        <v>139.579129586005</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K36" t="n">
-        <v>139.579129586005</v>
+        <v>330.350241868577</v>
       </c>
       <c r="L36" t="n">
-        <v>575.18859148681</v>
+        <v>765.959703769382</v>
       </c>
       <c r="M36" t="n">
-        <v>1141.660802052524</v>
+        <v>822.1187259240801</v>
       </c>
       <c r="N36" t="n">
-        <v>1615.77845778357</v>
+        <v>1416.978673320066</v>
       </c>
       <c r="O36" t="n">
-        <v>2084.450862760018</v>
+        <v>1885.651078296515</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.922668455688</v>
+        <v>2249.122883992185</v>
       </c>
       <c r="Q36" t="n">
-        <v>2447.922668455688</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583029</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.791262396854</v>
+        <v>2338.890912154576</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972331</v>
+        <v>2151.527634730053</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.95476753924</v>
+        <v>1933.054417296962</v>
       </c>
       <c r="V36" t="n">
-        <v>1627.559144987574</v>
+        <v>1704.658794745296</v>
       </c>
       <c r="W36" t="n">
-        <v>1386.243276220884</v>
+        <v>1463.342925978606</v>
       </c>
       <c r="X36" t="n">
-        <v>1188.326288098678</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y36" t="n">
-        <v>995.8049617482571</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.5778949449758</v>
+        <v>92.0249375375311</v>
       </c>
       <c r="C37" t="n">
-        <v>89.5778949449758</v>
+        <v>92.0249375375311</v>
       </c>
       <c r="D37" t="n">
-        <v>89.5778949449758</v>
+        <v>92.0249375375311</v>
       </c>
       <c r="E37" t="n">
-        <v>89.5778949449758</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="F37" t="n">
-        <v>89.5778949449758</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="G37" t="n">
-        <v>89.5778949449758</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="H37" t="n">
-        <v>89.5778949449758</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I37" t="n">
-        <v>89.5778949449758</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J37" t="n">
-        <v>48.95845336911377</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K37" t="n">
         <v>113.8692614527295</v>
@@ -7108,37 +7108,37 @@
         <v>574.4284065466521</v>
       </c>
       <c r="O37" t="n">
-        <v>710.9793247974546</v>
+        <v>710.9793247974545</v>
       </c>
       <c r="P37" t="n">
-        <v>806.5380492916087</v>
+        <v>806.5380492916086</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.0226377715533</v>
+        <v>791.0226377715531</v>
       </c>
       <c r="R37" t="n">
-        <v>791.0226377715533</v>
+        <v>791.0226377715531</v>
       </c>
       <c r="S37" t="n">
-        <v>755.3663444350403</v>
+        <v>755.3663444350402</v>
       </c>
       <c r="T37" t="n">
-        <v>696.6242355557264</v>
+        <v>696.6242355557263</v>
       </c>
       <c r="U37" t="n">
-        <v>582.7111209448414</v>
+        <v>582.7111209448412</v>
       </c>
       <c r="V37" t="n">
-        <v>321.975816503264</v>
+        <v>495.2379450316626</v>
       </c>
       <c r="W37" t="n">
-        <v>209.0815435490618</v>
+        <v>209.0815435490617</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0912079728364</v>
+        <v>151.0912079728363</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.87113510095682</v>
+        <v>102.3181776935122</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.115623597501</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C38" t="n">
         <v>1106.443993458708</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143299</v>
+        <v>906.8821572143302</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488356</v>
+        <v>685.3585658488358</v>
       </c>
       <c r="F38" t="n">
-        <v>444.4695036874048</v>
+        <v>444.469503687405</v>
       </c>
       <c r="G38" t="n">
         <v>202.2405627008748</v>
@@ -7172,25 +7172,25 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J38" t="n">
-        <v>171.9423552115157</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K38" t="n">
-        <v>171.9423552115157</v>
+        <v>365.5126598202181</v>
       </c>
       <c r="L38" t="n">
-        <v>583.6194250613212</v>
+        <v>808.1961514596533</v>
       </c>
       <c r="M38" t="n">
-        <v>1082.33976384823</v>
+        <v>1306.916490246562</v>
       </c>
       <c r="N38" t="n">
-        <v>1567.859090718534</v>
+        <v>1727.162344357869</v>
       </c>
       <c r="O38" t="n">
-        <v>1974.078234053258</v>
+        <v>2133.381487692593</v>
       </c>
       <c r="P38" t="n">
-        <v>2288.619414816354</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q38" t="n">
         <v>2447.922668455689</v>
@@ -7208,7 +7208,7 @@
         <v>2317.934720622653</v>
       </c>
       <c r="V38" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W38" t="n">
         <v>1964.944773432993</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>913.4851687247184</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C39" t="n">
-        <v>751.7814959656731</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D39" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E39" t="n">
-        <v>465.9148490127565</v>
+        <v>388.8151992550347</v>
       </c>
       <c r="F39" t="n">
-        <v>331.2210509626308</v>
+        <v>254.121401204909</v>
       </c>
       <c r="G39" t="n">
-        <v>202.8204905086185</v>
+        <v>125.7208407508967</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0498384456336</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I39" t="n">
         <v>48.95845336911378</v>
       </c>
       <c r="J39" t="n">
-        <v>139.579129586005</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K39" t="n">
-        <v>420.9709180854682</v>
+        <v>330.350241868577</v>
       </c>
       <c r="L39" t="n">
-        <v>856.5803799862732</v>
+        <v>765.959703769382</v>
       </c>
       <c r="M39" t="n">
-        <v>1423.052590551987</v>
+        <v>1332.431914335096</v>
       </c>
       <c r="N39" t="n">
-        <v>1615.77845778357</v>
+        <v>1927.291861731083</v>
       </c>
       <c r="O39" t="n">
         <v>2084.450862760019</v>
@@ -7281,22 +7281,22 @@
         <v>2261.791262396854</v>
       </c>
       <c r="T39" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.427984972331</v>
       </c>
       <c r="U39" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V39" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W39" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X39" t="n">
-        <v>1265.4259378564</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y39" t="n">
-        <v>1072.904611505979</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.95845336911378</v>
+        <v>259.1938644832956</v>
       </c>
       <c r="C40" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="D40" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="E40" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="F40" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="G40" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="H40" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="J40" t="n">
         <v>48.95845336911378</v>
@@ -7342,40 +7342,40 @@
         <v>414.7709834069171</v>
       </c>
       <c r="N40" t="n">
-        <v>574.4284065466521</v>
+        <v>574.428406546652</v>
       </c>
       <c r="O40" t="n">
-        <v>710.9793247974546</v>
+        <v>710.9793247974544</v>
       </c>
       <c r="P40" t="n">
-        <v>806.5380492916087</v>
+        <v>806.5380492916084</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.5380492916087</v>
+        <v>791.022637771553</v>
       </c>
       <c r="R40" t="n">
-        <v>806.5380492916087</v>
+        <v>791.022637771553</v>
       </c>
       <c r="S40" t="n">
-        <v>770.8817559550957</v>
+        <v>755.3663444350401</v>
       </c>
       <c r="T40" t="n">
-        <v>712.1396470757818</v>
+        <v>696.6242355557262</v>
       </c>
       <c r="U40" t="n">
-        <v>598.2265324648968</v>
+        <v>582.7111209448411</v>
       </c>
       <c r="V40" t="n">
-        <v>510.7533565517182</v>
+        <v>495.2379450316625</v>
       </c>
       <c r="W40" t="n">
-        <v>397.8590835975161</v>
+        <v>382.3436720774604</v>
       </c>
       <c r="X40" t="n">
-        <v>166.6066194928918</v>
+        <v>324.3533365012349</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.2516935250948</v>
+        <v>269.4871046392766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597505</v>
       </c>
       <c r="C41" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458711</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143301</v>
+        <v>906.8821572143328</v>
       </c>
       <c r="E41" t="n">
-        <v>685.3585658488357</v>
+        <v>685.3585658488378</v>
       </c>
       <c r="F41" t="n">
-        <v>444.4695036874048</v>
+        <v>444.4695036874062</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008756</v>
       </c>
       <c r="H41" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="I41" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="J41" t="n">
-        <v>171.9423552115157</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="K41" t="n">
-        <v>488.49656166262</v>
+        <v>365.5126598202182</v>
       </c>
       <c r="L41" t="n">
-        <v>931.1800533020553</v>
+        <v>583.6194250613305</v>
       </c>
       <c r="M41" t="n">
-        <v>1429.900392088964</v>
+        <v>1082.339763848239</v>
       </c>
       <c r="N41" t="n">
-        <v>1915.419718959268</v>
+        <v>1567.859090718544</v>
       </c>
       <c r="O41" t="n">
-        <v>1974.078234053258</v>
+        <v>1974.078234053267</v>
       </c>
       <c r="P41" t="n">
-        <v>2288.619414816354</v>
+        <v>2288.619414816364</v>
       </c>
       <c r="Q41" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="R41" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="S41" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017797</v>
       </c>
       <c r="U41" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.93472062266</v>
       </c>
       <c r="V41" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575047</v>
       </c>
       <c r="W41" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773432999</v>
       </c>
       <c r="X41" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.17676148289</v>
       </c>
       <c r="Y41" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587126</v>
       </c>
     </row>
     <row r="42">
@@ -7464,55 +7464,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>913.4851687247184</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C42" t="n">
-        <v>751.7814959656731</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D42" t="n">
-        <v>612.9428589558852</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E42" t="n">
-        <v>465.9148490127565</v>
+        <v>465.9148490127567</v>
       </c>
       <c r="F42" t="n">
-        <v>331.2210509626308</v>
+        <v>331.221050962631</v>
       </c>
       <c r="G42" t="n">
-        <v>202.8204905086185</v>
+        <v>202.8204905086187</v>
       </c>
       <c r="H42" t="n">
-        <v>106.0498384456336</v>
+        <v>106.0498384456338</v>
       </c>
       <c r="I42" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="J42" t="n">
-        <v>139.579129586005</v>
+        <v>139.5791295860051</v>
       </c>
       <c r="K42" t="n">
-        <v>420.9709180854682</v>
+        <v>420.9709180854684</v>
       </c>
       <c r="L42" t="n">
-        <v>822.1187259240787</v>
+        <v>817.9181055175487</v>
       </c>
       <c r="M42" t="n">
-        <v>822.1187259240787</v>
+        <v>1384.390316083263</v>
       </c>
       <c r="N42" t="n">
-        <v>1416.978673320065</v>
+        <v>1979.250263479249</v>
       </c>
       <c r="O42" t="n">
-        <v>1885.651078296514</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="P42" t="n">
-        <v>2249.122883992184</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="Q42" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="R42" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583036</v>
       </c>
       <c r="S42" t="n">
         <v>2338.890912154576</v>
@@ -7530,10 +7530,10 @@
         <v>1463.342925978606</v>
       </c>
       <c r="X42" t="n">
-        <v>1265.4259378564</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y42" t="n">
-        <v>1072.904611505979</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>242.0585499191987</v>
+        <v>246.5061315922489</v>
       </c>
       <c r="C43" t="n">
-        <v>242.0585499191987</v>
+        <v>246.5061315922489</v>
       </c>
       <c r="D43" t="n">
-        <v>242.0585499191987</v>
+        <v>246.5061315922489</v>
       </c>
       <c r="E43" t="n">
-        <v>242.0585499191987</v>
+        <v>246.5061315922489</v>
       </c>
       <c r="F43" t="n">
-        <v>89.57789494497581</v>
+        <v>246.5061315922489</v>
       </c>
       <c r="G43" t="n">
-        <v>89.57789494497581</v>
+        <v>246.5061315922489</v>
       </c>
       <c r="H43" t="n">
-        <v>89.57789494497581</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="I43" t="n">
-        <v>89.57789494497581</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="J43" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527296</v>
       </c>
       <c r="L43" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947382</v>
       </c>
       <c r="M43" t="n">
-        <v>414.7709834069171</v>
+        <v>414.7709834069173</v>
       </c>
       <c r="N43" t="n">
-        <v>574.4284065466521</v>
+        <v>574.4284065466522</v>
       </c>
       <c r="O43" t="n">
         <v>710.9793247974546</v>
@@ -7588,31 +7588,31 @@
         <v>806.5380492916087</v>
       </c>
       <c r="Q43" t="n">
-        <v>806.5380492916087</v>
+        <v>791.0226377715533</v>
       </c>
       <c r="R43" t="n">
-        <v>806.5380492916087</v>
+        <v>791.0226377715533</v>
       </c>
       <c r="S43" t="n">
-        <v>770.8817559550957</v>
+        <v>736.5854099613637</v>
       </c>
       <c r="T43" t="n">
-        <v>712.1396470757818</v>
+        <v>677.843301082049</v>
       </c>
       <c r="U43" t="n">
-        <v>598.2265324648968</v>
+        <v>563.9301864711633</v>
       </c>
       <c r="V43" t="n">
-        <v>472.0094288849314</v>
+        <v>476.4570105579841</v>
       </c>
       <c r="W43" t="n">
-        <v>359.1151559307293</v>
+        <v>363.5627376037814</v>
       </c>
       <c r="X43" t="n">
-        <v>301.1248203545039</v>
+        <v>305.5724020275553</v>
       </c>
       <c r="Y43" t="n">
-        <v>252.3517900751797</v>
+        <v>256.7993717482306</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597505</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458711</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143299</v>
+        <v>906.8821572143327</v>
       </c>
       <c r="E44" t="n">
-        <v>685.3585658488353</v>
+        <v>685.3585658488375</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874043</v>
+        <v>444.4695036874066</v>
       </c>
       <c r="G44" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008756</v>
       </c>
       <c r="H44" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="I44" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="J44" t="n">
-        <v>171.9423552115157</v>
+        <v>171.9423552115159</v>
       </c>
       <c r="K44" t="n">
-        <v>488.49656166262</v>
+        <v>488.4965616626201</v>
       </c>
       <c r="L44" t="n">
-        <v>583.6194250613212</v>
+        <v>931.1800533020554</v>
       </c>
       <c r="M44" t="n">
-        <v>1082.33976384823</v>
+        <v>1429.900392088964</v>
       </c>
       <c r="N44" t="n">
-        <v>1567.859090718534</v>
+        <v>1915.419718959268</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.078234053258</v>
+        <v>2288.619414816364</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.619414816354</v>
+        <v>2288.619414816364</v>
       </c>
       <c r="Q44" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="R44" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="S44" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455697</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.508895017797</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.93472062266</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575047</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773432999</v>
       </c>
       <c r="X44" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.17676148289</v>
       </c>
       <c r="Y44" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587126</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>913.4851687247184</v>
+        <v>836.3855189670057</v>
       </c>
       <c r="C45" t="n">
-        <v>751.7814959656731</v>
+        <v>674.6818462079605</v>
       </c>
       <c r="D45" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981725</v>
       </c>
       <c r="E45" t="n">
-        <v>465.9148490127565</v>
+        <v>388.8151992550438</v>
       </c>
       <c r="F45" t="n">
-        <v>331.2210509626308</v>
+        <v>254.1214012049181</v>
       </c>
       <c r="G45" t="n">
-        <v>202.8204905086185</v>
+        <v>125.7208407509058</v>
       </c>
       <c r="H45" t="n">
-        <v>106.0498384456336</v>
+        <v>106.0498384456338</v>
       </c>
       <c r="I45" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="J45" t="n">
-        <v>139.579129586005</v>
+        <v>139.5791295860051</v>
       </c>
       <c r="K45" t="n">
-        <v>420.9709180854682</v>
+        <v>420.9709180854684</v>
       </c>
       <c r="L45" t="n">
-        <v>856.5803799862732</v>
+        <v>856.5803799862733</v>
       </c>
       <c r="M45" t="n">
-        <v>1423.052590551987</v>
+        <v>1290.791130900536</v>
       </c>
       <c r="N45" t="n">
-        <v>1423.052590551987</v>
+        <v>1885.651078296523</v>
       </c>
       <c r="O45" t="n">
-        <v>1885.651078296514</v>
+        <v>1885.651078296523</v>
       </c>
       <c r="P45" t="n">
-        <v>2249.122883992184</v>
+        <v>2249.122883992193</v>
       </c>
       <c r="Q45" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455698</v>
       </c>
       <c r="R45" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583036</v>
       </c>
       <c r="S45" t="n">
-        <v>2338.890912154576</v>
+        <v>2261.791262396863</v>
       </c>
       <c r="T45" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.42798497234</v>
       </c>
       <c r="U45" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.954767539249</v>
       </c>
       <c r="V45" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987583</v>
       </c>
       <c r="W45" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220893</v>
       </c>
       <c r="X45" t="n">
-        <v>1265.4259378564</v>
+        <v>1188.326288098688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1072.904611505979</v>
+        <v>995.8049617482667</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.02493753753122</v>
+        <v>259.1938644832957</v>
       </c>
       <c r="C46" t="n">
-        <v>92.02493753753122</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="D46" t="n">
-        <v>92.02493753753122</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="E46" t="n">
-        <v>92.02493753753122</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="F46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="G46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="H46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="I46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497598</v>
       </c>
       <c r="J46" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911396</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527296</v>
       </c>
       <c r="L46" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947382</v>
       </c>
       <c r="M46" t="n">
-        <v>414.7709834069171</v>
+        <v>414.7709834069173</v>
       </c>
       <c r="N46" t="n">
-        <v>574.4284065466521</v>
+        <v>574.4284065466522</v>
       </c>
       <c r="O46" t="n">
         <v>710.9793247974546</v>
@@ -7825,31 +7825,31 @@
         <v>806.5380492916087</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.0226377715533</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="R46" t="n">
-        <v>791.0226377715533</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="S46" t="n">
-        <v>755.3663444350403</v>
+        <v>749.2731428524105</v>
       </c>
       <c r="T46" t="n">
-        <v>696.6242355557264</v>
+        <v>690.5310339730959</v>
       </c>
       <c r="U46" t="n">
-        <v>582.7111209448414</v>
+        <v>576.6179193622102</v>
       </c>
       <c r="V46" t="n">
-        <v>321.975816503264</v>
+        <v>489.1447434490309</v>
       </c>
       <c r="W46" t="n">
-        <v>209.0815435490618</v>
+        <v>376.2504704948282</v>
       </c>
       <c r="X46" t="n">
-        <v>151.0912079728364</v>
+        <v>318.2601349186021</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.3181776935123</v>
+        <v>269.4871046392773</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.59943624652225</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K11" t="n">
-        <v>143.7084298838712</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>470.743049297807</v>
+        <v>95.80453685554994</v>
       </c>
       <c r="M11" t="n">
-        <v>80.6096755741078</v>
+        <v>80.60967557410781</v>
       </c>
       <c r="N11" t="n">
-        <v>453.0659516825795</v>
+        <v>389.4114802527248</v>
       </c>
       <c r="O11" t="n">
-        <v>459.6563810790547</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,19 +8769,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>59.57067831891456</v>
+        <v>59.57067831891457</v>
       </c>
       <c r="L12" t="n">
-        <v>42.08289141893634</v>
+        <v>417.0214038611934</v>
       </c>
       <c r="M12" t="n">
-        <v>108.4632871135842</v>
+        <v>408.160943230677</v>
       </c>
       <c r="N12" t="n">
-        <v>397.2149653555571</v>
+        <v>22.27645291329996</v>
       </c>
       <c r="O12" t="n">
-        <v>413.553057828825</v>
+        <v>113.8554017117321</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8927,22 +8927,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L14" t="n">
-        <v>95.80453685554991</v>
+        <v>470.743049297807</v>
       </c>
       <c r="M14" t="n">
-        <v>455.548188016365</v>
+        <v>455.5481880163649</v>
       </c>
       <c r="N14" t="n">
-        <v>78.12743924032235</v>
+        <v>453.0659516825795</v>
       </c>
       <c r="O14" t="n">
-        <v>432.6881235854952</v>
+        <v>320.2811867961331</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157594</v>
       </c>
       <c r="Q14" t="n">
         <v>115.097110444407</v>
@@ -9006,25 +9006,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>335.6193977385282</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0214038611935</v>
+        <v>417.0214038611934</v>
       </c>
       <c r="M15" t="n">
-        <v>33.22243078841994</v>
+        <v>191.3723953925808</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291329995</v>
+        <v>22.27645291329996</v>
       </c>
       <c r="O15" t="n">
         <v>413.553057828825</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548398</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.29261096215416</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.59943624652225</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K17" t="n">
         <v>101.63731265453</v>
       </c>
       <c r="L17" t="n">
-        <v>95.80453685554991</v>
+        <v>95.80453685554994</v>
       </c>
       <c r="M17" t="n">
-        <v>336.7069278322372</v>
+        <v>455.5481880163649</v>
       </c>
       <c r="N17" t="n">
         <v>453.0659516825795</v>
       </c>
       <c r="O17" t="n">
-        <v>459.6563810790547</v>
+        <v>459.6563810790546</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>157.1682276737482</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9246,16 +9246,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>417.0214038611935</v>
+        <v>417.0214038611934</v>
       </c>
       <c r="M18" t="n">
         <v>199.1676697584036</v>
       </c>
       <c r="N18" t="n">
-        <v>22.27645291329995</v>
+        <v>22.27645291329996</v>
       </c>
       <c r="O18" t="n">
-        <v>38.61454538656785</v>
+        <v>38.61454538656787</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.59943624652225</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,19 +9407,19 @@
         <v>470.743049297807</v>
       </c>
       <c r="M20" t="n">
-        <v>334.6735685514211</v>
+        <v>455.5481880163649</v>
       </c>
       <c r="N20" t="n">
-        <v>453.0659516825795</v>
+        <v>175.3853452239368</v>
       </c>
       <c r="O20" t="n">
-        <v>84.71786863679749</v>
+        <v>84.7178686367975</v>
       </c>
       <c r="P20" t="n">
-        <v>100.6199562157593</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,19 +9480,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891457</v>
       </c>
       <c r="L21" t="n">
-        <v>417.0214038611935</v>
+        <v>42.08289141893636</v>
       </c>
       <c r="M21" t="n">
-        <v>33.22243078841994</v>
+        <v>108.4632871135842</v>
       </c>
       <c r="N21" t="n">
-        <v>22.27645291329995</v>
+        <v>397.2149653555571</v>
       </c>
       <c r="O21" t="n">
-        <v>204.5597843565515</v>
+        <v>413.553057828825</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.59943624652225</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K23" t="n">
         <v>101.63731265453</v>
       </c>
       <c r="L23" t="n">
-        <v>95.80453685554991</v>
+        <v>95.80453685554994</v>
       </c>
       <c r="M23" t="n">
-        <v>455.548188016365</v>
+        <v>455.5481880163649</v>
       </c>
       <c r="N23" t="n">
-        <v>334.2246914984517</v>
+        <v>453.0659516825795</v>
       </c>
       <c r="O23" t="n">
-        <v>459.6563810790547</v>
+        <v>459.6563810790546</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>299.4970604387997</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9717,25 +9717,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>59.57067831891456</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>417.0214038611935</v>
+        <v>42.08289141893636</v>
       </c>
       <c r="M24" t="n">
-        <v>33.22243078841994</v>
+        <v>33.22243078841996</v>
       </c>
       <c r="N24" t="n">
-        <v>97.51730923846419</v>
+        <v>397.2149653555571</v>
       </c>
       <c r="O24" t="n">
         <v>413.553057828825</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>405.8161888540944</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215416</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K27" t="n">
-        <v>59.57067831891456</v>
+        <v>107.0232382276747</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9969,7 +9969,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>369.91812255796</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>72.29261096215416</v>
@@ -10191,7 +10191,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>59.57067831891456</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,16 +10200,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>94.01961708077334</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>369.91812255796</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.29261096215416</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,13 +10425,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>72.38230935981311</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K33" t="n">
-        <v>107.0232382276746</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>245.3108790058194</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>186.4726224735564</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>100.6199562157593</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>244.6898698885545</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K36" t="n">
-        <v>59.57067831891456</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>89.94871579316546</v>
       </c>
       <c r="N36" t="n">
-        <v>501.1831758739522</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.29261096215416</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K38" t="n">
-        <v>101.63731265453</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>511.6399609462625</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355793</v>
+        <v>502.6182009689152</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>216.949046076515</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>197.3610110723621</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>316.1144007354613</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11072,7 +11072,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>143.9688939842617</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11142,10 +11142,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>447.2826973165227</v>
+        <v>443.0396464008357</v>
       </c>
       <c r="M42" t="n">
-        <v>33.22243078841994</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11154,10 +11154,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548398</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215416</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11300,7 +11300,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>191.8882372582784</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11309,10 +11309,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>461.687258391439</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157594</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11382,13 +11382,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>471.8191488836353</v>
       </c>
       <c r="N45" t="n">
-        <v>22.27645291329995</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>505.8857451285137</v>
+        <v>38.61454538656787</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.62656649881567</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C11" t="n">
         <v>229.119167376504</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>145.2535310863876</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.0144250789147</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2926861902832</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>184.6142276590013</v>
       </c>
       <c r="W11" t="n">
-        <v>209.9143271369582</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210319</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>39.98179049167274</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>262.340905115763</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909799</v>
+        <v>22.53425353909802</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>29.66963865092148</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X14" t="n">
         <v>229.2145853697048</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.92725901483027e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1290282.654320111</v>
+        <v>1290282.654320112</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1290282.654320111</v>
+        <v>1290282.654320112</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1290282.654320111</v>
+        <v>1290282.654320112</v>
       </c>
     </row>
   </sheetData>
@@ -26329,25 +26329,25 @@
         <v>249477.819660609</v>
       </c>
       <c r="H2" t="n">
+        <v>249477.819660609</v>
+      </c>
+      <c r="I2" t="n">
+        <v>249477.819660609</v>
+      </c>
+      <c r="J2" t="n">
+        <v>249477.8196606094</v>
+      </c>
+      <c r="K2" t="n">
+        <v>249477.8196606095</v>
+      </c>
+      <c r="L2" t="n">
+        <v>249477.8196606093</v>
+      </c>
+      <c r="M2" t="n">
         <v>249477.8196606091</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>249477.8196606091</v>
-      </c>
-      <c r="J2" t="n">
-        <v>249477.8196606095</v>
-      </c>
-      <c r="K2" t="n">
-        <v>249477.8196606092</v>
-      </c>
-      <c r="L2" t="n">
-        <v>249477.8196606094</v>
-      </c>
-      <c r="M2" t="n">
-        <v>249477.8196606092</v>
-      </c>
-      <c r="N2" t="n">
-        <v>249477.8196606092</v>
       </c>
       <c r="O2" t="n">
         <v>249477.8196606091</v>
@@ -26375,13 +26375,13 @@
         <v>352409.0220339871</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103019</v>
+        <v>76159.64004103024</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.64004103022</v>
+        <v>76159.64004103024</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.36825920505</v>
+        <v>83474.36825920526</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733633</v>
+        <v>4735.800136733635</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>419756.4024566745</v>
       </c>
       <c r="E4" t="n">
-        <v>303300.2911377926</v>
+        <v>303300.2911377928</v>
       </c>
       <c r="F4" t="n">
         <v>303300.2911377926</v>
@@ -26433,7 +26433,7 @@
         <v>359427.9628026184</v>
       </c>
       <c r="H4" t="n">
-        <v>359427.9628026184</v>
+        <v>359427.9628026185</v>
       </c>
       <c r="I4" t="n">
         <v>359427.9628026185</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38612.60241106102</v>
+        <v>38612.60241106101</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.60241106102</v>
+        <v>38612.60241106101</v>
       </c>
       <c r="G5" t="n">
-        <v>46615.93338432273</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432273</v>
+        <v>46615.93338432274</v>
       </c>
       <c r="I5" t="n">
-        <v>46615.93338432273</v>
+        <v>46615.93338432274</v>
       </c>
       <c r="J5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="K5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276492</v>
       </c>
       <c r="L5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276488</v>
       </c>
       <c r="M5" t="n">
+        <v>54919.1975758767</v>
+      </c>
+      <c r="N5" t="n">
         <v>54919.19757587668</v>
       </c>
-      <c r="N5" t="n">
-        <v>54919.19757587669</v>
-      </c>
       <c r="O5" t="n">
-        <v>54919.19757587668</v>
+        <v>54919.19757587677</v>
       </c>
       <c r="P5" t="n">
-        <v>54919.19757587668</v>
+        <v>54919.19757587677</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204474.0972168006</v>
+        <v>-204478.4657892678</v>
       </c>
       <c r="C6" t="n">
-        <v>-204474.0972168006</v>
+        <v>-204478.4657892678</v>
       </c>
       <c r="D6" t="n">
-        <v>-204474.0972168006</v>
+        <v>-204478.4657892678</v>
       </c>
       <c r="E6" t="n">
-        <v>-476803.7061939163</v>
+        <v>-477049.5493498525</v>
       </c>
       <c r="F6" t="n">
-        <v>-124394.6841599294</v>
+        <v>-124640.5273158654</v>
       </c>
       <c r="G6" t="n">
-        <v>-232725.7165673623</v>
+        <v>-232725.7165673624</v>
       </c>
       <c r="H6" t="n">
-        <v>-156566.0765263321</v>
+        <v>-156566.0765263322</v>
       </c>
       <c r="I6" t="n">
         <v>-156566.0765263322</v>
@@ -26546,22 +26546,22 @@
         <v>-300345.6040269891</v>
       </c>
       <c r="K6" t="n">
-        <v>-163990.046579193</v>
+        <v>-163990.0465791927</v>
       </c>
       <c r="L6" t="n">
-        <v>-240149.6866202231</v>
+        <v>-240149.6866202232</v>
       </c>
       <c r="M6" t="n">
-        <v>-238849.9768203289</v>
+        <v>-238849.9768203293</v>
       </c>
       <c r="N6" t="n">
-        <v>-155375.6085611238</v>
+        <v>-155375.6085611239</v>
       </c>
       <c r="O6" t="n">
         <v>-160111.4086978576</v>
       </c>
       <c r="P6" t="n">
-        <v>-155375.6085611239</v>
+        <v>-155375.6085611241</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>148.9952537040167</v>
       </c>
       <c r="F2" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G2" t="n">
         <v>244.1948037553045</v>
       </c>
       <c r="H2" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I2" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="J2" t="n">
         <v>101.1193002222048</v>
@@ -26722,10 +26722,10 @@
         <v>171.5295072431148</v>
       </c>
       <c r="O2" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>150.9384803178348</v>
       </c>
       <c r="K3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178349</v>
       </c>
       <c r="L3" t="n">
         <v>150.9384803178348</v>
@@ -26811,25 +26811,25 @@
         <v>374.9385124422571</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160457</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160458</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160453</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139221</v>
+        <v>611.9806671139226</v>
       </c>
       <c r="N4" t="n">
         <v>611.9806671139222</v>
       </c>
       <c r="O4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139245</v>
       </c>
       <c r="P4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139245</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>148.9952537040167</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.19955005128773</v>
+        <v>95.19955005128782</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.919750170917069</v>
+        <v>5.919750170916956</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128777</v>
+        <v>95.1995500512878</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702090997</v>
+        <v>70.41020702091004</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170917041</v>
+        <v>5.919750170916359</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737884</v>
+        <v>503.0490181737886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9316489401337</v>
+        <v>108.9316489401343</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>148.9952537040167</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128773</v>
+        <v>95.19955005128782</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170917069</v>
+        <v>5.919750170916956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>92.31170930647603</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28178,16 +28178,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52047122575467</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>148.9952537040167</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>143.6609592307104</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28266,10 +28266,10 @@
         <v>148.9952537040167</v>
       </c>
       <c r="I13" t="n">
-        <v>134.5756943977516</v>
+        <v>134.5756943977525</v>
       </c>
       <c r="J13" t="n">
-        <v>40.2132471601043</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="D14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="E14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="F14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="H14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="I14" t="n">
         <v>147.6958378085047</v>
@@ -28375,25 +28375,25 @@
         <v>51.61576569231045</v>
       </c>
       <c r="S14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="U14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="V14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="W14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
     </row>
     <row r="15">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>127.1165548494722</v>
@@ -28424,7 +28424,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I15" t="n">
-        <v>56.52047122575467</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2.77318473070082</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>47.08278618238268</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>148.9952537040167</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="D16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="E16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="F16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="I16" t="n">
         <v>134.5756943977516</v>
@@ -28533,25 +28533,25 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="T16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="U16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="V16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="W16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
     </row>
     <row r="17">
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.1165548494722</v>
       </c>
       <c r="H18" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.343259625650802</v>
+        <v>77.92597150464874</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28731,19 +28731,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I19" t="n">
-        <v>27.86183798692308</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J19" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R19" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>206.8292376462626</v>
@@ -28776,7 +28776,7 @@
         <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
-        <v>244.1948037553045</v>
+        <v>232.6988762822011</v>
       </c>
       <c r="V19" t="n">
         <v>244.1948037553045</v>
@@ -28785,7 +28785,7 @@
         <v>244.1948037553045</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="C20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="D20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="E20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I20" t="n">
         <v>147.6958378085047</v>
@@ -28855,19 +28855,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
     </row>
     <row r="21">
@@ -28880,19 +28880,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>112.6567385315135</v>
       </c>
       <c r="F21" t="n">
-        <v>16.48388440347061</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>88.40187702117862</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>80.53206602034166</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H22" t="n">
         <v>155.3589542808002</v>
@@ -28980,7 +28980,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J22" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R22" t="n">
         <v>135.7881746594375</v>
@@ -29010,16 +29010,16 @@
         <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V22" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1948037553045</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="C23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="D23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="E23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="F23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I23" t="n">
         <v>147.6958378085047</v>
@@ -29086,25 +29086,25 @@
         <v>51.61576569231045</v>
       </c>
       <c r="S23" t="n">
-        <v>171.5295072431161</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T23" t="n">
         <v>219.4591429466353</v>
       </c>
       <c r="U23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
     </row>
     <row r="24">
@@ -29165,16 +29165,16 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443113</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4896446502776</v>
+        <v>167.002770152736</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>17.0286787416905</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,22 +29193,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>155.3589542808002</v>
@@ -29217,7 +29217,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,19 +29250,19 @@
         <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
-        <v>244.1948037553045</v>
+        <v>112.3617663298953</v>
       </c>
       <c r="V25" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1948037553045</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X25" t="n">
-        <v>156.8926972721953</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -29296,22 +29296,22 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K26" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="L26" t="n">
-        <v>45.98902442737034</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M26" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="N26" t="n">
-        <v>101.1193002222048</v>
+        <v>95.49255895726583</v>
       </c>
       <c r="O26" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>101.1193002222048</v>
@@ -29320,7 +29320,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="R26" t="n">
-        <v>101.1193002222048</v>
+        <v>51.61576569231045</v>
       </c>
       <c r="S26" t="n">
         <v>101.1193002222048</v>
@@ -29469,7 +29469,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.119300222204</v>
       </c>
       <c r="P28" t="n">
         <v>101.1193002222048</v>
@@ -29545,19 +29545,19 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N29" t="n">
+        <v>95.49255895726549</v>
+      </c>
+      <c r="O29" t="n">
         <v>101.1193002222048</v>
       </c>
-      <c r="O29" t="n">
-        <v>95.49255895726554</v>
-      </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>101.1193002222048</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231041</v>
       </c>
       <c r="S29" t="n">
         <v>101.1193002222048</v>
@@ -29776,16 +29776,16 @@
         <v>101.1193002222048</v>
       </c>
       <c r="L32" t="n">
-        <v>45.98902442737023</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>45.98902442736994</v>
+      </c>
+      <c r="O32" t="n">
         <v>101.1193002222048</v>
-      </c>
-      <c r="N32" t="n">
-        <v>101.1193002222048</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>101.1193002222048</v>
@@ -29931,7 +29931,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="K34" t="n">
-        <v>101.1193002222034</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L34" t="n">
         <v>101.1193002222048</v>
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>76.32865326014497</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>76.32865326014314</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>107.8531047695612</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30165,7 +30165,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30201,16 +30201,16 @@
         <v>171.5295072431148</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W37" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.1069350764849</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="38">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>19.80818203438996</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>76.32865326014428</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30402,7 +30402,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J40" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.7881746594375</v>
@@ -30444,10 +30444,10 @@
         <v>171.5295072431148</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.5334305115266</v>
+        <v>165.4972376763069</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="C41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="D41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="E41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="F41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="G41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="H41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="I41" t="n">
         <v>147.6958378085047</v>
@@ -30511,22 +30511,22 @@
         <v>171.5295072431148</v>
       </c>
       <c r="T41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="U41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="V41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="W41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="X41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
     </row>
     <row r="42">
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>76.32865326014446</v>
+        <v>76.3286532601355</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30627,13 +30627,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.958367000993</v>
       </c>
       <c r="H43" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.5756943977516</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S43" t="n">
-        <v>171.5295072431148</v>
+        <v>152.9363821141749</v>
       </c>
       <c r="T43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="U43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="V43" t="n">
-        <v>133.1730188529959</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="W43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="X43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="C44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="D44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="E44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="F44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="G44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="H44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="I44" t="n">
         <v>147.6958378085047</v>
@@ -30745,25 +30745,25 @@
         <v>51.61576569231045</v>
       </c>
       <c r="S44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="T44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="U44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="V44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="W44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="X44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.32865326013579</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>76.32865326014446</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>108.3200290977474</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.958367000993</v>
@@ -30876,7 +30876,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R46" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S46" t="n">
-        <v>171.5295072431148</v>
+        <v>150.1369802714564</v>
       </c>
       <c r="T46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="U46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="W46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="X46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431142</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I11" t="n">
         <v>23.39318899478724</v>
@@ -31762,10 +31762,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L11" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M11" t="n">
         <v>106.5466389230513</v>
@@ -31777,19 +31777,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S11" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T11" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U11" t="n">
         <v>0.04854302884593677</v>
@@ -31832,40 +31832,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H12" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I12" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J12" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K12" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M12" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N12" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P12" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q12" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R12" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T12" t="n">
         <v>1.308608145397077</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H13" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J13" t="n">
         <v>19.24341903986559</v>
@@ -31923,7 +31923,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L13" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M13" t="n">
         <v>42.66610190361352</v>
@@ -31935,7 +31935,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P13" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q13" t="n">
         <v>22.79171052799305</v>
@@ -31944,7 +31944,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S13" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T13" t="n">
         <v>1.162968618842333</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H14" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I14" t="n">
         <v>23.39318899478724</v>
@@ -31999,10 +31999,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K14" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L14" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M14" t="n">
         <v>106.5466389230513</v>
@@ -32014,19 +32014,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P14" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R14" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S14" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T14" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U14" t="n">
         <v>0.04854302884593677</v>
@@ -32069,40 +32069,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H15" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I15" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J15" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K15" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M15" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N15" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O15" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P15" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q15" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R15" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S15" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T15" t="n">
         <v>1.308608145397077</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H16" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I16" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J16" t="n">
         <v>19.24341903986559</v>
@@ -32160,7 +32160,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L16" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M16" t="n">
         <v>42.66610190361352</v>
@@ -32172,7 +32172,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P16" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q16" t="n">
         <v>22.79171052799305</v>
@@ -32181,7 +32181,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S16" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T16" t="n">
         <v>1.162968618842333</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H17" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I17" t="n">
         <v>23.39318899478724</v>
@@ -32236,10 +32236,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K17" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L17" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M17" t="n">
         <v>106.5466389230513</v>
@@ -32251,19 +32251,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P17" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R17" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S17" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T17" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U17" t="n">
         <v>0.04854302884593677</v>
@@ -32306,40 +32306,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H18" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I18" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J18" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L18" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M18" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N18" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O18" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P18" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q18" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R18" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S18" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T18" t="n">
         <v>1.308608145397077</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H19" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I19" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J19" t="n">
         <v>19.24341903986559</v>
@@ -32397,7 +32397,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L19" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M19" t="n">
         <v>42.66610190361352</v>
@@ -32409,7 +32409,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P19" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q19" t="n">
         <v>22.79171052799305</v>
@@ -32418,7 +32418,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S19" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T19" t="n">
         <v>1.162968618842333</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H20" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I20" t="n">
         <v>23.39318899478724</v>
@@ -32473,10 +32473,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K20" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L20" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M20" t="n">
         <v>106.5466389230513</v>
@@ -32488,19 +32488,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P20" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R20" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S20" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T20" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U20" t="n">
         <v>0.04854302884593677</v>
@@ -32543,40 +32543,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H21" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I21" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J21" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K21" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L21" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M21" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N21" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O21" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P21" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q21" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R21" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S21" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T21" t="n">
         <v>1.308608145397077</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H22" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I22" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J22" t="n">
         <v>19.24341903986559</v>
@@ -32634,7 +32634,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L22" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M22" t="n">
         <v>42.66610190361352</v>
@@ -32646,7 +32646,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P22" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q22" t="n">
         <v>22.79171052799305</v>
@@ -32655,7 +32655,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S22" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T22" t="n">
         <v>1.162968618842333</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I23" t="n">
         <v>23.39318899478724</v>
@@ -32710,10 +32710,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K23" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L23" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M23" t="n">
         <v>106.5466389230513</v>
@@ -32725,19 +32725,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P23" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R23" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S23" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T23" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U23" t="n">
         <v>0.04854302884593677</v>
@@ -32780,40 +32780,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H24" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I24" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J24" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K24" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L24" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M24" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N24" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O24" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P24" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q24" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R24" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S24" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T24" t="n">
         <v>1.308608145397077</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H25" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I25" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J25" t="n">
         <v>19.24341903986559</v>
@@ -32871,7 +32871,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L25" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M25" t="n">
         <v>42.66610190361352</v>
@@ -32883,7 +32883,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P25" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q25" t="n">
         <v>22.79171052799305</v>
@@ -32892,7 +32892,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S25" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T25" t="n">
         <v>1.162968618842333</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H26" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I26" t="n">
         <v>23.39318899478724</v>
@@ -32947,10 +32947,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K26" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L26" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M26" t="n">
         <v>106.5466389230513</v>
@@ -32962,19 +32962,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P26" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R26" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S26" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T26" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U26" t="n">
         <v>0.04854302884593677</v>
@@ -33017,40 +33017,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H27" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I27" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J27" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K27" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L27" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M27" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N27" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O27" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P27" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q27" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R27" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S27" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T27" t="n">
         <v>1.308608145397077</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H28" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J28" t="n">
         <v>19.24341903986559</v>
@@ -33108,7 +33108,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L28" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M28" t="n">
         <v>42.66610190361352</v>
@@ -33120,7 +33120,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P28" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q28" t="n">
         <v>22.79171052799305</v>
@@ -33129,7 +33129,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S28" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T28" t="n">
         <v>1.162968618842333</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742104</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105634</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478727</v>
       </c>
       <c r="J29" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141043</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951678</v>
       </c>
       <c r="L29" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756479</v>
       </c>
       <c r="M29" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230514</v>
       </c>
       <c r="N29" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319079</v>
       </c>
       <c r="O29" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433231</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539724</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.52626257858324</v>
+        <v>65.5262625785833</v>
       </c>
       <c r="R29" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679477</v>
       </c>
       <c r="S29" t="n">
-        <v>13.82717837283482</v>
+        <v>13.82717837283483</v>
       </c>
       <c r="T29" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663607</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593682</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760978</v>
       </c>
       <c r="H30" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413892</v>
       </c>
       <c r="I30" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108495</v>
       </c>
       <c r="J30" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685362</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775217</v>
       </c>
       <c r="L30" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221151</v>
       </c>
       <c r="M30" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177322004</v>
       </c>
       <c r="N30" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440844</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454332</v>
       </c>
       <c r="P30" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865942</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273839</v>
       </c>
       <c r="R30" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206861</v>
       </c>
       <c r="S30" t="n">
-        <v>6.030419473075755</v>
+        <v>6.03041947307576</v>
       </c>
       <c r="T30" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397078</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290118</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.27218414483544</v>
       </c>
       <c r="H31" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718732</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596683</v>
+        <v>8.18531955559669</v>
       </c>
       <c r="J31" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986561</v>
       </c>
       <c r="K31" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724475</v>
       </c>
       <c r="L31" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307988</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361357</v>
       </c>
       <c r="N31" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377241</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183112</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718812</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799308</v>
       </c>
       <c r="R31" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232806</v>
       </c>
       <c r="S31" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086713</v>
       </c>
       <c r="T31" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011493</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H32" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I32" t="n">
         <v>23.39318899478724</v>
@@ -33421,10 +33421,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K32" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L32" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M32" t="n">
         <v>106.5466389230513</v>
@@ -33436,19 +33436,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P32" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R32" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S32" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T32" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U32" t="n">
         <v>0.04854302884593677</v>
@@ -33491,40 +33491,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H33" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I33" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J33" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K33" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L33" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M33" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N33" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O33" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P33" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q33" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R33" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S33" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T33" t="n">
         <v>1.308608145397077</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H34" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I34" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J34" t="n">
         <v>19.24341903986559</v>
@@ -33582,7 +33582,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L34" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M34" t="n">
         <v>42.66610190361352</v>
@@ -33594,7 +33594,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P34" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q34" t="n">
         <v>22.79171052799305</v>
@@ -33603,7 +33603,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S34" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T34" t="n">
         <v>1.162968618842333</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H35" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I35" t="n">
         <v>23.39318899478724</v>
@@ -33658,10 +33658,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K35" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L35" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M35" t="n">
         <v>106.5466389230513</v>
@@ -33673,19 +33673,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P35" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R35" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S35" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T35" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U35" t="n">
         <v>0.04854302884593677</v>
@@ -33728,40 +33728,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H36" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I36" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J36" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K36" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L36" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M36" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N36" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O36" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P36" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q36" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R36" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S36" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T36" t="n">
         <v>1.308608145397077</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H37" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I37" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J37" t="n">
         <v>19.24341903986559</v>
@@ -33819,7 +33819,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L37" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M37" t="n">
         <v>42.66610190361352</v>
@@ -33831,7 +33831,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P37" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q37" t="n">
         <v>22.79171052799305</v>
@@ -33840,7 +33840,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S37" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T37" t="n">
         <v>1.162968618842333</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H38" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I38" t="n">
         <v>23.39318899478724</v>
@@ -33895,10 +33895,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K38" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L38" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M38" t="n">
         <v>106.5466389230513</v>
@@ -33910,19 +33910,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P38" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R38" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S38" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T38" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U38" t="n">
         <v>0.04854302884593677</v>
@@ -33965,40 +33965,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H39" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I39" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J39" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K39" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L39" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M39" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N39" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O39" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P39" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q39" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R39" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S39" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T39" t="n">
         <v>1.308608145397077</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H40" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I40" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J40" t="n">
         <v>19.24341903986559</v>
@@ -34056,7 +34056,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L40" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M40" t="n">
         <v>42.66610190361352</v>
@@ -34068,7 +34068,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P40" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q40" t="n">
         <v>22.79171052799305</v>
@@ -34077,7 +34077,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S40" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T40" t="n">
         <v>1.162968618842333</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H41" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I41" t="n">
         <v>23.39318899478724</v>
@@ -34132,10 +34132,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K41" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L41" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M41" t="n">
         <v>106.5466389230513</v>
@@ -34147,19 +34147,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P41" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R41" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S41" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T41" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U41" t="n">
         <v>0.04854302884593677</v>
@@ -34202,40 +34202,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H42" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I42" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J42" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K42" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L42" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M42" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N42" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O42" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P42" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q42" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R42" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S42" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T42" t="n">
         <v>1.308608145397077</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H43" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I43" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J43" t="n">
         <v>19.24341903986559</v>
@@ -34293,7 +34293,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L43" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M43" t="n">
         <v>42.66610190361352</v>
@@ -34305,7 +34305,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P43" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q43" t="n">
         <v>22.79171052799305</v>
@@ -34314,7 +34314,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S43" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T43" t="n">
         <v>1.162968618842333</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6067878605742097</v>
+        <v>0.6067878605742096</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105627</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I44" t="n">
         <v>23.39318899478724</v>
@@ -34369,10 +34369,10 @@
         <v>51.50036118141038</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951671</v>
+        <v>77.18569131951669</v>
       </c>
       <c r="L44" t="n">
-        <v>95.7556753075647</v>
+        <v>95.75567530756467</v>
       </c>
       <c r="M44" t="n">
         <v>106.5466389230513</v>
@@ -34384,19 +34384,19 @@
         <v>102.236928143323</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539715</v>
+        <v>87.25685283539714</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858324</v>
+        <v>65.52626257858323</v>
       </c>
       <c r="R44" t="n">
-        <v>38.11613794679474</v>
+        <v>38.11613794679473</v>
       </c>
       <c r="S44" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T44" t="n">
-        <v>2.656213859663605</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U44" t="n">
         <v>0.04854302884593677</v>
@@ -34439,40 +34439,40 @@
         <v>0.3246601274760975</v>
       </c>
       <c r="H45" t="n">
-        <v>3.13553333641389</v>
+        <v>3.135533336413889</v>
       </c>
       <c r="I45" t="n">
-        <v>11.17799123108494</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J45" t="n">
-        <v>30.67326230685359</v>
+        <v>30.67326230685358</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775212</v>
+        <v>52.42549084775211</v>
       </c>
       <c r="L45" t="n">
-        <v>70.49254215221144</v>
+        <v>70.49254215221143</v>
       </c>
       <c r="M45" t="n">
-        <v>82.26147177321995</v>
+        <v>82.26147177321994</v>
       </c>
       <c r="N45" t="n">
-        <v>84.43868815440837</v>
+        <v>84.43868815440835</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454325</v>
+        <v>77.24490322454324</v>
       </c>
       <c r="P45" t="n">
-        <v>61.99584486865936</v>
+        <v>61.99584486865935</v>
       </c>
       <c r="Q45" t="n">
         <v>41.44258048273834</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206859</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075755</v>
+        <v>6.030419473075753</v>
       </c>
       <c r="T45" t="n">
         <v>1.308608145397077</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354398</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H46" t="n">
         <v>2.41996448771873</v>
       </c>
       <c r="I46" t="n">
-        <v>8.185319555596683</v>
+        <v>8.185319555596681</v>
       </c>
       <c r="J46" t="n">
         <v>19.24341903986559</v>
@@ -34530,7 +34530,7 @@
         <v>31.62284882724472</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307984</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M46" t="n">
         <v>42.66610190361352</v>
@@ -34542,7 +34542,7 @@
         <v>38.47199167183108</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718809</v>
+        <v>32.91943511718808</v>
       </c>
       <c r="Q46" t="n">
         <v>22.79171052799305</v>
@@ -34551,7 +34551,7 @@
         <v>12.23838891232804</v>
       </c>
       <c r="S46" t="n">
-        <v>4.743427324086708</v>
+        <v>4.743427324086707</v>
       </c>
       <c r="T46" t="n">
         <v>1.162968618842333</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.07111722934123</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>374.9385124422571</v>
+        <v>311.2840410124024</v>
       </c>
       <c r="O11" t="n">
         <v>374.9385124422571</v>
@@ -35428,7 +35428,7 @@
         <v>317.7183644071681</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M12" t="n">
-        <v>75.24085632516424</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N12" t="n">
-        <v>374.9385124422571</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>374.9385124422571</v>
+        <v>75.24085632516419</v>
       </c>
       <c r="P12" t="n">
-        <v>367.1432380764344</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q12" t="n">
         <v>200.8078630944497</v>
@@ -35562,19 +35562,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.402131149956882e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>8.935613192134594e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L13" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M13" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N13" t="n">
         <v>161.2701243835707</v>
@@ -35647,22 +35647,22 @@
         <v>124.2261634771737</v>
       </c>
       <c r="K14" t="n">
-        <v>319.7517236879842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M14" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O14" t="n">
-        <v>347.9702549486977</v>
+        <v>235.5633181593356</v>
       </c>
       <c r="P14" t="n">
-        <v>317.7183644071681</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0487194196136</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L15" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>158.1499646041608</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>374.9385124422571</v>
       </c>
       <c r="P15" t="n">
-        <v>367.1432380764344</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L16" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M16" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N16" t="n">
         <v>161.2701243835707</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>256.0972522581293</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N17" t="n">
         <v>374.9385124422571</v>
@@ -35902,7 +35902,7 @@
         <v>317.7183644071681</v>
       </c>
       <c r="Q17" t="n">
-        <v>160.9123774134691</v>
+        <v>42.07111722934122</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K18" t="n">
         <v>284.2341297974376</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>367.1432380764344</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q18" t="n">
         <v>200.8078630944497</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L19" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M19" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N19" t="n">
         <v>161.2701243835707</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>319.7517236879842</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L20" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="M20" t="n">
-        <v>254.0638929773133</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N20" t="n">
-        <v>374.9385124422571</v>
+        <v>97.25790598361441</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q20" t="n">
-        <v>160.9123774134691</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K21" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>75.24085632516422</v>
+      </c>
+      <c r="N21" t="n">
         <v>374.9385124422571</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>165.9452389699836</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P21" t="n">
-        <v>367.1432380764344</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q21" t="n">
         <v>200.8078630944497</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L22" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M22" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N22" t="n">
         <v>161.2701243835707</v>
@@ -36367,13 +36367,13 @@
         <v>374.9385124422571</v>
       </c>
       <c r="N23" t="n">
-        <v>256.0972522581293</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O23" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="P23" t="n">
-        <v>317.7183644071681</v>
+        <v>198.8771042230403</v>
       </c>
       <c r="Q23" t="n">
         <v>160.9123774134691</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>374.9385124422571</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>75.24085632516424</v>
       </c>
       <c r="O24" t="n">
         <v>374.9385124422571</v>
       </c>
       <c r="P24" t="n">
-        <v>367.1432380764344</v>
+        <v>358.9578276986105</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L25" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M25" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N25" t="n">
         <v>161.2701243835707</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.2261634771737</v>
+        <v>225.3454636993785</v>
       </c>
       <c r="K26" t="n">
         <v>420.871023910189</v>
       </c>
       <c r="L26" t="n">
-        <v>493.144066487406</v>
+        <v>548.2743422822405</v>
       </c>
       <c r="M26" t="n">
-        <v>604.8772181887794</v>
+        <v>604.8772181887792</v>
       </c>
       <c r="N26" t="n">
-        <v>591.5428627174618</v>
+        <v>585.9161214525228</v>
       </c>
       <c r="O26" t="n">
-        <v>511.4416672269763</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P26" t="n">
         <v>418.8376646293729</v>
@@ -36616,7 +36616,7 @@
         <v>262.0316776356739</v>
       </c>
       <c r="R26" t="n">
-        <v>49.50353452989438</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.53603658271838</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>47.45255990876011</v>
       </c>
       <c r="L27" t="n">
-        <v>440.0095574755606</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M27" t="n">
         <v>572.1941520865799</v>
@@ -36689,7 +36689,7 @@
         <v>473.4064696731805</v>
       </c>
       <c r="P27" t="n">
-        <v>323.0597614024761</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210142</v>
+        <v>60.90605306210141</v>
       </c>
       <c r="K28" t="n">
         <v>166.6857730339378</v>
@@ -36762,16 +36762,16 @@
         <v>262.9707618506686</v>
       </c>
       <c r="N28" t="n">
-        <v>262.3894246057756</v>
+        <v>262.3894246057755</v>
       </c>
       <c r="O28" t="n">
-        <v>239.0495206775608</v>
+        <v>239.04952067756</v>
       </c>
       <c r="P28" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281735004</v>
+        <v>85.75904281735001</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,19 +36838,19 @@
         <v>548.2743422822405</v>
       </c>
       <c r="M29" t="n">
-        <v>604.8772181887792</v>
+        <v>604.8772181887794</v>
       </c>
       <c r="N29" t="n">
-        <v>591.5428627174618</v>
+        <v>585.9161214525226</v>
       </c>
       <c r="O29" t="n">
-        <v>505.814925962037</v>
+        <v>511.4416672269763</v>
       </c>
       <c r="P29" t="n">
-        <v>418.8376646293729</v>
+        <v>317.7183644071682</v>
       </c>
       <c r="Q29" t="n">
-        <v>160.9123774134691</v>
+        <v>262.031677635674</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271841</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>284.2341297974377</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0095574755606</v>
+        <v>440.0095574755607</v>
       </c>
       <c r="M30" t="n">
-        <v>572.1941520865799</v>
+        <v>572.1941520865801</v>
       </c>
       <c r="N30" t="n">
-        <v>600.8686337333196</v>
+        <v>71.74316416747347</v>
       </c>
       <c r="O30" t="n">
-        <v>473.4064696731805</v>
+        <v>473.4064696731806</v>
       </c>
       <c r="P30" t="n">
-        <v>323.0597614024761</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210139</v>
+        <v>60.90605306210142</v>
       </c>
       <c r="K31" t="n">
-        <v>166.6857730339378</v>
+        <v>166.6857730339379</v>
       </c>
       <c r="L31" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807994</v>
       </c>
       <c r="M31" t="n">
         <v>262.9707618506686</v>
       </c>
       <c r="N31" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057756</v>
       </c>
       <c r="O31" t="n">
         <v>239.0495206775608</v>
@@ -37008,7 +37008,7 @@
         <v>197.6432643577139</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281735001</v>
+        <v>85.75904281735004</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>420.871023910189</v>
       </c>
       <c r="L32" t="n">
-        <v>493.1440664874058</v>
+        <v>548.2743422822405</v>
       </c>
       <c r="M32" t="n">
-        <v>604.8772181887794</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N32" t="n">
-        <v>591.5428627174618</v>
+        <v>536.4125869226269</v>
       </c>
       <c r="O32" t="n">
-        <v>410.3223670047714</v>
+        <v>511.4416672269762</v>
       </c>
       <c r="P32" t="n">
-        <v>418.837664629373</v>
+        <v>418.8376646293729</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.031677635674</v>
+        <v>262.0316776356739</v>
       </c>
       <c r="R32" t="n">
-        <v>49.5035345298944</v>
+        <v>49.50353452989435</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>47.45255990876007</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L33" t="n">
-        <v>440.0095574755606</v>
+        <v>203.227987586883</v>
       </c>
       <c r="M33" t="n">
         <v>572.1941520865799</v>
@@ -37163,7 +37163,7 @@
         <v>473.4064696731805</v>
       </c>
       <c r="P33" t="n">
-        <v>367.1432380764344</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210144</v>
+        <v>60.90605306210139</v>
       </c>
       <c r="K34" t="n">
-        <v>166.6857730339364</v>
+        <v>166.6857730339378</v>
       </c>
       <c r="L34" t="n">
         <v>243.2089718807993</v>
       </c>
       <c r="M34" t="n">
-        <v>262.9707618506686</v>
+        <v>262.9707618506685</v>
       </c>
       <c r="N34" t="n">
-        <v>262.3894246057756</v>
+        <v>262.3894246057755</v>
       </c>
       <c r="O34" t="n">
-        <v>239.0495206775609</v>
+        <v>239.0495206775608</v>
       </c>
       <c r="P34" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281735004</v>
+        <v>85.75904281734999</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>90.87318622703417</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K35" t="n">
-        <v>319.7517236879842</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>447.1550420600356</v>
       </c>
       <c r="M35" t="n">
-        <v>503.7579179665745</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N35" t="n">
         <v>490.423562495257</v>
@@ -37321,10 +37321,10 @@
         <v>410.3223670047714</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q35" t="n">
-        <v>160.9123774134691</v>
+        <v>129.5927594441475</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.53603658271838</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L36" t="n">
-        <v>440.0095574755606</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M36" t="n">
-        <v>572.1941520865799</v>
+        <v>56.72628500474551</v>
       </c>
       <c r="N36" t="n">
-        <v>478.9067229606522</v>
+        <v>600.8686337333196</v>
       </c>
       <c r="O36" t="n">
         <v>473.4064696731805</v>
       </c>
       <c r="P36" t="n">
-        <v>367.1432380764344</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L37" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M37" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N37" t="n">
         <v>161.2701243835707</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.2261634771737</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L38" t="n">
-        <v>415.8354240907125</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M38" t="n">
-        <v>503.7579179665745</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N38" t="n">
-        <v>490.423562495257</v>
+        <v>424.4907617285929</v>
       </c>
       <c r="O38" t="n">
         <v>410.3223670047714</v>
@@ -37561,7 +37561,7 @@
         <v>317.7183644071681</v>
       </c>
       <c r="Q38" t="n">
-        <v>160.9123774134691</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>91.53603658271838</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L39" t="n">
-        <v>440.0095574755606</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M39" t="n">
         <v>572.1941520865799</v>
       </c>
       <c r="N39" t="n">
-        <v>194.6725931632151</v>
+        <v>600.8686337333196</v>
       </c>
       <c r="O39" t="n">
-        <v>473.4064696731805</v>
+        <v>158.7464656857942</v>
       </c>
       <c r="P39" t="n">
-        <v>367.1432380764344</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L40" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M40" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N40" t="n">
         <v>161.2701243835707</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.2261634771737</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>319.7517236879842</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L41" t="n">
-        <v>447.1550420600356</v>
+        <v>220.3098638799114</v>
       </c>
       <c r="M41" t="n">
-        <v>503.7579179665745</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N41" t="n">
         <v>490.423562495257</v>
       </c>
       <c r="O41" t="n">
-        <v>59.25102534746418</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P41" t="n">
         <v>317.7183644071681</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K42" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L42" t="n">
-        <v>405.1998058975864</v>
+        <v>400.9567549818993</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N42" t="n">
         <v>600.8686337333196</v>
@@ -37874,10 +37874,10 @@
         <v>473.4064696731805</v>
       </c>
       <c r="P42" t="n">
-        <v>367.1432380764344</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L43" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M43" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N43" t="n">
         <v>161.2701243835707</v>
@@ -38017,22 +38017,22 @@
         <v>124.2261634771737</v>
       </c>
       <c r="K44" t="n">
-        <v>319.7517236879842</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L44" t="n">
-        <v>96.08370040272844</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M44" t="n">
-        <v>503.7579179665745</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N44" t="n">
         <v>490.423562495257</v>
       </c>
       <c r="O44" t="n">
-        <v>410.3223670047714</v>
+        <v>376.9693897546415</v>
       </c>
       <c r="P44" t="n">
-        <v>317.7183644071681</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>160.9123774134691</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>91.53603658271838</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K45" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L45" t="n">
-        <v>440.0095574755606</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M45" t="n">
-        <v>572.1941520865799</v>
+        <v>438.5967180952153</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>600.8686337333196</v>
       </c>
       <c r="O45" t="n">
-        <v>467.2711997419459</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>367.1432380764344</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q45" t="n">
         <v>200.8078630944497</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>65.56647281173302</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L46" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M46" t="n">
-        <v>161.8514616284638</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N46" t="n">
         <v>161.2701243835707</v>
